--- a/schools.xlsx
+++ b/schools.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/226e3371a49bebd4/Dokumenty/MFVS stuff/Erasmus-visual-streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{37587D02-6FFE-4F54-AEA5-8FF907359D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{88CA60D9-C14E-4226-9F63-66A63AFFB218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="343">
   <si>
     <t>ERASMUS CODE</t>
   </si>
@@ -47,6 +47,906 @@
     <t>Obory</t>
   </si>
   <si>
+    <t>D  WURZBUR01</t>
+  </si>
+  <si>
+    <t>JULIUS-MAXIMILIANS-UNIVERSITAT WURZBURG</t>
+  </si>
+  <si>
+    <t>Würzburg</t>
+  </si>
+  <si>
+    <t>Spolková republika Německo</t>
+  </si>
+  <si>
+    <t>9.971655766351642</t>
+  </si>
+  <si>
+    <t>49.780603150000005</t>
+  </si>
+  <si>
+    <t>http://www.uni-wuerzburg.de</t>
+  </si>
+  <si>
+    <t>Matematika a statistika</t>
+  </si>
+  <si>
+    <t>BG ROUSSE01</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF RUSE ANGEL KANCHEV</t>
+  </si>
+  <si>
+    <t>Rousse</t>
+  </si>
+  <si>
+    <t>Bulharská republika</t>
+  </si>
+  <si>
+    <t>25.972612663551303</t>
+  </si>
+  <si>
+    <t>43.85348155</t>
+  </si>
+  <si>
+    <t>https://www.uni-ruse.bg</t>
+  </si>
+  <si>
+    <t>Fyzika</t>
+  </si>
+  <si>
+    <t>PL CZESTOC01</t>
+  </si>
+  <si>
+    <t>POLITECHNIKA CZESTOCHOWSKA</t>
+  </si>
+  <si>
+    <t>Czestochowa</t>
+  </si>
+  <si>
+    <t>Polská republika</t>
+  </si>
+  <si>
+    <t>19.115807327479168</t>
+  </si>
+  <si>
+    <t>50.822852350000005</t>
+  </si>
+  <si>
+    <t>https://www.pcz.pl</t>
+  </si>
+  <si>
+    <t>HR SPLIT01</t>
+  </si>
+  <si>
+    <t>SVEUCILISTE U SPLITU</t>
+  </si>
+  <si>
+    <t>SPLIT</t>
+  </si>
+  <si>
+    <t>Chorvatská republika</t>
+  </si>
+  <si>
+    <t>16.4681525</t>
+  </si>
+  <si>
+    <t>43.5109588</t>
+  </si>
+  <si>
+    <t>https://www.unist.hr</t>
+  </si>
+  <si>
+    <t>TR ANTALYA01</t>
+  </si>
+  <si>
+    <t>AKDENIZ UNIVERSITY</t>
+  </si>
+  <si>
+    <t>Antalya</t>
+  </si>
+  <si>
+    <t>Turecká republika</t>
+  </si>
+  <si>
+    <t>30.650947292742977</t>
+  </si>
+  <si>
+    <t>36.8937844</t>
+  </si>
+  <si>
+    <t>http://www.akdeniz.edu.tr</t>
+  </si>
+  <si>
+    <t>Biologické a příbuzné vědy</t>
+  </si>
+  <si>
+    <t>RS NOVISAD02</t>
+  </si>
+  <si>
+    <t>UNIVERZITET U NOVOM SADU</t>
+  </si>
+  <si>
+    <t>NOVI SAD</t>
+  </si>
+  <si>
+    <t>Srbská republika</t>
+  </si>
+  <si>
+    <t>19.851175531732203</t>
+  </si>
+  <si>
+    <t>45.246226</t>
+  </si>
+  <si>
+    <t>http://www.uns.ac.rs</t>
+  </si>
+  <si>
+    <t>Vědy o Zemi</t>
+  </si>
+  <si>
+    <t>D  LEIPZIG01</t>
+  </si>
+  <si>
+    <t>UNIVERSITAET LEIPZIG</t>
+  </si>
+  <si>
+    <t>Leipzig</t>
+  </si>
+  <si>
+    <t>12.37863856850984</t>
+  </si>
+  <si>
+    <t>51.33845385</t>
+  </si>
+  <si>
+    <t>http://www.uni-leipzig.de</t>
+  </si>
+  <si>
+    <t>E  MADRID04</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD AUTONOMA DE MADRID</t>
+  </si>
+  <si>
+    <t>Madrid</t>
+  </si>
+  <si>
+    <t>Španělské království</t>
+  </si>
+  <si>
+    <t>-3.6949577655963672</t>
+  </si>
+  <si>
+    <t>40.5453765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.uam.es </t>
+  </si>
+  <si>
+    <t>Biologie</t>
+  </si>
+  <si>
+    <t>P  LEIRIA01</t>
+  </si>
+  <si>
+    <t>INSTITUTO POLITECNICO DE LEIRIA</t>
+  </si>
+  <si>
+    <t>Leiria</t>
+  </si>
+  <si>
+    <t>Portugalská republika</t>
+  </si>
+  <si>
+    <t>-8.8105226085993</t>
+  </si>
+  <si>
+    <t>39.737149106966484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ipleiria.pt </t>
+  </si>
+  <si>
+    <t>Přírodní vědy, matematika a statistika</t>
+  </si>
+  <si>
+    <t>D  GIESSEN01</t>
+  </si>
+  <si>
+    <t>JUSTUS-LIEBIG-UNIVERSITAET GIESSEN</t>
+  </si>
+  <si>
+    <t>Giessen</t>
+  </si>
+  <si>
+    <t>8.699976819474603</t>
+  </si>
+  <si>
+    <t>50.573589150000004</t>
+  </si>
+  <si>
+    <t>https://www.uni-giessen.de</t>
+  </si>
+  <si>
+    <t>TR ESKISEH03</t>
+  </si>
+  <si>
+    <t>ESKISEHIR TEKNIK UNIVERSITESI</t>
+  </si>
+  <si>
+    <t>Eskisehir</t>
+  </si>
+  <si>
+    <t>30.53174476235694</t>
+  </si>
+  <si>
+    <t>39.8168591</t>
+  </si>
+  <si>
+    <t>https://www.eskisehir.edu.tr</t>
+  </si>
+  <si>
+    <t>RO TIMISOA01</t>
+  </si>
+  <si>
+    <t>UNIVERSITATEA DE VEST DIN TIMISOARA</t>
+  </si>
+  <si>
+    <t>Timisoara</t>
+  </si>
+  <si>
+    <t>Rumunsko</t>
+  </si>
+  <si>
+    <t>21.23126099621941</t>
+  </si>
+  <si>
+    <t>45.74732925</t>
+  </si>
+  <si>
+    <t>https://www.uvt.ro</t>
+  </si>
+  <si>
+    <t>SK BANSKA01</t>
+  </si>
+  <si>
+    <t>UNIVERZITA MATEJA BELA V BANSKEJ BYSTRICI</t>
+  </si>
+  <si>
+    <t>Bánská Bystrica</t>
+  </si>
+  <si>
+    <t>Slovenská republika</t>
+  </si>
+  <si>
+    <t>19.145530921337212</t>
+  </si>
+  <si>
+    <t>48.73317955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.umb.sk </t>
+  </si>
+  <si>
+    <t>SK RUZOMBE01</t>
+  </si>
+  <si>
+    <t>KATOLICKA UNIVERZITA V RUZOMBERKU</t>
+  </si>
+  <si>
+    <t>Ružomberok</t>
+  </si>
+  <si>
+    <t>20.5875762</t>
+  </si>
+  <si>
+    <t>49.0223689</t>
+  </si>
+  <si>
+    <t>http://www.ku.sk/en/</t>
+  </si>
+  <si>
+    <t>TR TRABZON04</t>
+  </si>
+  <si>
+    <t>TRABZON UNIVERSITY</t>
+  </si>
+  <si>
+    <t>TRABZON</t>
+  </si>
+  <si>
+    <t>39.81261147848775</t>
+  </si>
+  <si>
+    <t>40.9853391</t>
+  </si>
+  <si>
+    <t>https://trabzon.edu.tr</t>
+  </si>
+  <si>
+    <t>D  ROSTOCK01</t>
+  </si>
+  <si>
+    <t>UNIVERSITAET ROSTOCK</t>
+  </si>
+  <si>
+    <t>Rostock</t>
+  </si>
+  <si>
+    <t>12.6856683</t>
+  </si>
+  <si>
+    <t>54.4308835</t>
+  </si>
+  <si>
+    <t>https://www.uni-rostock.de</t>
+  </si>
+  <si>
+    <t>SK BRATISL02</t>
+  </si>
+  <si>
+    <t>UNIVERZITA KOMENSKEHO V BRATISLAVE</t>
+  </si>
+  <si>
+    <t>Bratislava</t>
+  </si>
+  <si>
+    <t>17.1161819</t>
+  </si>
+  <si>
+    <t>48.1412324</t>
+  </si>
+  <si>
+    <t>http://www.uniba.sk</t>
+  </si>
+  <si>
+    <t>RO BUCURES18</t>
+  </si>
+  <si>
+    <t>UNIVERSITATEA ROMANO AMERICANA ASOCIATIE</t>
+  </si>
+  <si>
+    <t>Bucharest</t>
+  </si>
+  <si>
+    <t>26.065691841236948</t>
+  </si>
+  <si>
+    <t>44.472983799999994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.rau.ro </t>
+  </si>
+  <si>
+    <t>Informační a komunikační technologie (ICT)</t>
+  </si>
+  <si>
+    <t>HR ZAGREB11</t>
+  </si>
+  <si>
+    <t>SVEUCILISTE ALGEBRA</t>
+  </si>
+  <si>
+    <t>ZAGREB</t>
+  </si>
+  <si>
+    <t>15.941112901216494</t>
+  </si>
+  <si>
+    <t>45.810512700000004</t>
+  </si>
+  <si>
+    <t>https://www.algebra.hr</t>
+  </si>
+  <si>
+    <t>E  JAEN01</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD DE JAEN</t>
+  </si>
+  <si>
+    <t>Jaén</t>
+  </si>
+  <si>
+    <t>-3.776633970633042</t>
+  </si>
+  <si>
+    <t>37.78820865</t>
+  </si>
+  <si>
+    <t>https://www.ujaen.es</t>
+  </si>
+  <si>
+    <t>D  KOTHEN01</t>
+  </si>
+  <si>
+    <t>HOCHSCHULE ANHALT</t>
+  </si>
+  <si>
+    <t>Kothen</t>
+  </si>
+  <si>
+    <t>12.228052275548063</t>
+  </si>
+  <si>
+    <t>51.83977985</t>
+  </si>
+  <si>
+    <t>https://www.hs-anhalt.de</t>
+  </si>
+  <si>
+    <t>HU BUDAPES01</t>
+  </si>
+  <si>
+    <t>EOTVOS LORAND TUDOMANYEGYETEM</t>
+  </si>
+  <si>
+    <t>Budapest</t>
+  </si>
+  <si>
+    <t>Maďarsko</t>
+  </si>
+  <si>
+    <t>19.061899330588723</t>
+  </si>
+  <si>
+    <t>47.4934799</t>
+  </si>
+  <si>
+    <t>https://www.elte.hu</t>
+  </si>
+  <si>
+    <t>Vědy o neživé přírodě</t>
+  </si>
+  <si>
+    <t>D  SIGMARI01</t>
+  </si>
+  <si>
+    <t>HOCHSCHULE ALBSTADT-SIGMARINGEN</t>
+  </si>
+  <si>
+    <t>Sigmaringen</t>
+  </si>
+  <si>
+    <t>9.239475660191882</t>
+  </si>
+  <si>
+    <t>48.08715495</t>
+  </si>
+  <si>
+    <t>https://www.hs-albsig.de</t>
+  </si>
+  <si>
+    <t>Chemie</t>
+  </si>
+  <si>
+    <t>D  DRESDEN02</t>
+  </si>
+  <si>
+    <t>TECHNISCHE UNIVERSITAET DRESDEN</t>
+  </si>
+  <si>
+    <t>Dresden</t>
+  </si>
+  <si>
+    <t>13.735982754935176</t>
+  </si>
+  <si>
+    <t>51.028276500000004</t>
+  </si>
+  <si>
+    <t>http://www.tu-dresden.de/</t>
+  </si>
+  <si>
+    <t>F  ANGERS08</t>
+  </si>
+  <si>
+    <t>ASSOCIATION GROUPE ESA</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Francouzská republika</t>
+  </si>
+  <si>
+    <t>http://www.groupe-esa.com</t>
+  </si>
+  <si>
+    <t>Zemědělství, lesnictví, rybářství a veterinářství</t>
+  </si>
+  <si>
+    <t>D  KAISERS01</t>
+  </si>
+  <si>
+    <t>RHEINLAND-PFALZISCHE TECHNISCHE UNIVERSITAT</t>
+  </si>
+  <si>
+    <t>Kaiserslautern</t>
+  </si>
+  <si>
+    <t>7.754214153273509</t>
+  </si>
+  <si>
+    <t>49.4246142</t>
+  </si>
+  <si>
+    <t>https://rptu.de/</t>
+  </si>
+  <si>
+    <t>Životní prostředí</t>
+  </si>
+  <si>
+    <t>S  UMEA01</t>
+  </si>
+  <si>
+    <t>UMEA UNIVERSITET</t>
+  </si>
+  <si>
+    <t>Umea</t>
+  </si>
+  <si>
+    <t>Švédské království</t>
+  </si>
+  <si>
+    <t>20.304316311493196</t>
+  </si>
+  <si>
+    <t>63.82177625</t>
+  </si>
+  <si>
+    <t>https://www.umu.se</t>
+  </si>
+  <si>
+    <t>S  UPPSALA01</t>
+  </si>
+  <si>
+    <t>UPPSALA UNIVERSITET</t>
+  </si>
+  <si>
+    <t>Uppsala</t>
+  </si>
+  <si>
+    <t>17.6297861</t>
+  </si>
+  <si>
+    <t>59.8576902</t>
+  </si>
+  <si>
+    <t>https://www.uu.se</t>
+  </si>
+  <si>
+    <t>TR KARS01</t>
+  </si>
+  <si>
+    <t>KAFKAS UNIVERSITESI</t>
+  </si>
+  <si>
+    <t>Kars</t>
+  </si>
+  <si>
+    <t>43.05656720268237</t>
+  </si>
+  <si>
+    <t>40.58094665</t>
+  </si>
+  <si>
+    <t>https://www.kafkas.edu.tr</t>
+  </si>
+  <si>
+    <t>RO BUCURES09</t>
+  </si>
+  <si>
+    <t>UNIVERSITATEA DIN BUCURESTI</t>
+  </si>
+  <si>
+    <t>26.10092625223488</t>
+  </si>
+  <si>
+    <t>44.43564445</t>
+  </si>
+  <si>
+    <t>https://www.unibuc.ro</t>
+  </si>
+  <si>
+    <t>I  URBINO01</t>
+  </si>
+  <si>
+    <t>Universita' degli Studi di Urbino Carlo Bo</t>
+  </si>
+  <si>
+    <t>Urbino</t>
+  </si>
+  <si>
+    <t>Italská republika</t>
+  </si>
+  <si>
+    <t>12.6369445</t>
+  </si>
+  <si>
+    <t>43.723241</t>
+  </si>
+  <si>
+    <t>https://www.uniurb.it</t>
+  </si>
+  <si>
+    <t>Biochemie</t>
+  </si>
+  <si>
+    <t>PL OPOLE01</t>
+  </si>
+  <si>
+    <t>UNIWERSYTET OPOLSKI</t>
+  </si>
+  <si>
+    <t>Opole</t>
+  </si>
+  <si>
+    <t>17.93144882718738</t>
+  </si>
+  <si>
+    <t>50.673363949999995</t>
+  </si>
+  <si>
+    <t>https://www.uni.opole.pl</t>
+  </si>
+  <si>
+    <t>PL GDANSK01</t>
+  </si>
+  <si>
+    <t>UNIWERSYTET GDANSKI</t>
+  </si>
+  <si>
+    <t>Gdansk</t>
+  </si>
+  <si>
+    <t>18.57400997579134</t>
+  </si>
+  <si>
+    <t>54.396404950000004</t>
+  </si>
+  <si>
+    <t>https://www.ug.edu.pl</t>
+  </si>
+  <si>
+    <t>D  DORTMUN01</t>
+  </si>
+  <si>
+    <t>TECHNISCHE UNIVERSITAT DORTMUND</t>
+  </si>
+  <si>
+    <t>Dortmund</t>
+  </si>
+  <si>
+    <t>7.4122738886856805</t>
+  </si>
+  <si>
+    <t>51.49148435</t>
+  </si>
+  <si>
+    <t>https://www.tu-dortmund.de</t>
+  </si>
+  <si>
+    <t>Architektura a urbanismus</t>
+  </si>
+  <si>
+    <t>SK TRNAVA02</t>
+  </si>
+  <si>
+    <t>UNIVERZITA SV. CYRILA A METODA V TRNAVE</t>
+  </si>
+  <si>
+    <t>Trnava</t>
+  </si>
+  <si>
+    <t>https://www.ucm.sk</t>
+  </si>
+  <si>
+    <t>E  MALAGA01</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD DE MALAGA</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>-4.495336390634675</t>
+  </si>
+  <si>
+    <t>36.7165576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.uma.es  </t>
+  </si>
+  <si>
+    <t>TR IZMIR01</t>
+  </si>
+  <si>
+    <t>DOKUZ EYLUL UNIVERSITESI</t>
+  </si>
+  <si>
+    <t>Izmir</t>
+  </si>
+  <si>
+    <t>27.13696496633385</t>
+  </si>
+  <si>
+    <t>38.43052955</t>
+  </si>
+  <si>
+    <t>http://www.deu.edu.tr</t>
+  </si>
+  <si>
+    <t>PL SLUPSK01</t>
+  </si>
+  <si>
+    <t>AKADEMIA POMORSKA W SLUPSKU</t>
+  </si>
+  <si>
+    <t>Slupsk</t>
+  </si>
+  <si>
+    <t>https://www.upsl.edu.pl</t>
+  </si>
+  <si>
+    <t>SI KOPER03</t>
+  </si>
+  <si>
+    <t>UNIVERZA NA PRIMORSKEM UNIVERSITA DEL LITORALE</t>
+  </si>
+  <si>
+    <t>Koper</t>
+  </si>
+  <si>
+    <t>Slovinská republika</t>
+  </si>
+  <si>
+    <t>13.7268097</t>
+  </si>
+  <si>
+    <t>45.5480962</t>
+  </si>
+  <si>
+    <t>https://www.upr.si</t>
+  </si>
+  <si>
+    <t>G  ATHINE41</t>
+  </si>
+  <si>
+    <t>PANEPISTIMIO AIGAIOU</t>
+  </si>
+  <si>
+    <t>Mytilini</t>
+  </si>
+  <si>
+    <t>Řecká republika</t>
+  </si>
+  <si>
+    <t>https://www.aegean.gr</t>
+  </si>
+  <si>
+    <t>I  TRIESTE01</t>
+  </si>
+  <si>
+    <t>UNIVERSITA DEGLI STUDI DI TRIESTE</t>
+  </si>
+  <si>
+    <t>Trieste</t>
+  </si>
+  <si>
+    <t>13.794792540211322</t>
+  </si>
+  <si>
+    <t>45.6601694</t>
+  </si>
+  <si>
+    <t>https://www.units.it</t>
+  </si>
+  <si>
+    <t>F  TOULOUS15</t>
+  </si>
+  <si>
+    <t>ECOLE D'INGENIEURS DE PURPAN</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>1.3965155228102595</t>
+  </si>
+  <si>
+    <t>43.6024928</t>
+  </si>
+  <si>
+    <t>https://www.purpan.fr</t>
+  </si>
+  <si>
+    <t>Programy a kvalifikace – všeobecné vzdělání</t>
+  </si>
+  <si>
+    <t>LT KAUNAS01</t>
+  </si>
+  <si>
+    <t>VYTAUTO DIDZIOJO UNIVERSITETAS</t>
+  </si>
+  <si>
+    <t>Kaunas</t>
+  </si>
+  <si>
+    <t>Litevská republika</t>
+  </si>
+  <si>
+    <t>23.914216535114505</t>
+  </si>
+  <si>
+    <t>54.89709905</t>
+  </si>
+  <si>
+    <t>https://www.vdu.lt</t>
+  </si>
+  <si>
+    <t>EE TALLINN05</t>
+  </si>
+  <si>
+    <t>TALLINN UNIVERSITY</t>
+  </si>
+  <si>
+    <t>Tallinn</t>
+  </si>
+  <si>
+    <t>Estonská republika</t>
+  </si>
+  <si>
+    <t>24.772347058941484</t>
+  </si>
+  <si>
+    <t>59.4393125</t>
+  </si>
+  <si>
+    <t>https://www.tlu.ee</t>
+  </si>
+  <si>
+    <t>SK PRESOV01</t>
+  </si>
+  <si>
+    <t>PRESOVSKA UNIVERZITA V PRESOVE</t>
+  </si>
+  <si>
+    <t>Prešov</t>
+  </si>
+  <si>
+    <t>21.235015177927682</t>
+  </si>
+  <si>
+    <t>48.989434</t>
+  </si>
+  <si>
+    <t>https://www.unipo.sk</t>
+  </si>
+  <si>
+    <t>LV JELGAVA01</t>
+  </si>
+  <si>
+    <t>LATVIJAS BIOZINATNU UN TEHNOLOGIJU UNIVERSITATE</t>
+  </si>
+  <si>
+    <t>Jelgava</t>
+  </si>
+  <si>
+    <t>Lotyšská republika</t>
+  </si>
+  <si>
+    <t>23.7323561</t>
+  </si>
+  <si>
+    <t>56.655968</t>
+  </si>
+  <si>
+    <t>https://www.lbtu.lv</t>
+  </si>
+  <si>
     <t>PL LODZ02</t>
   </si>
   <si>
@@ -56,9 +956,6 @@
     <t>Lodz</t>
   </si>
   <si>
-    <t>Polská republika</t>
-  </si>
-  <si>
     <t>19.4529575</t>
   </si>
   <si>
@@ -68,172 +965,43 @@
     <t>https://www.p.lodz.pl</t>
   </si>
   <si>
-    <t>Informační a komunikační technologie (ICT)</t>
-  </si>
-  <si>
-    <t>PL CZESTOC01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POLITECHNIKA CZESTOCHOWSKA </t>
-  </si>
-  <si>
-    <t>Czestochowa</t>
-  </si>
-  <si>
-    <t>19.115807327479168</t>
-  </si>
-  <si>
-    <t>50.822852350000005</t>
-  </si>
-  <si>
-    <t>https://www.pcz.pl</t>
-  </si>
-  <si>
-    <t>Matematika a statistika</t>
-  </si>
-  <si>
-    <t>HR SPLIT01</t>
-  </si>
-  <si>
-    <t>SVEUCILISTE U SPLITU</t>
-  </si>
-  <si>
-    <t>SPLIT</t>
-  </si>
-  <si>
-    <t>Chorvatská republika</t>
-  </si>
-  <si>
-    <t>16.4681525</t>
-  </si>
-  <si>
-    <t>43.5109588</t>
-  </si>
-  <si>
-    <t>https://www.unist.hr</t>
-  </si>
-  <si>
-    <t>Fyzika</t>
-  </si>
-  <si>
-    <t>Chemie</t>
-  </si>
-  <si>
-    <t>TR ESKISEH03</t>
-  </si>
-  <si>
-    <t>ESKISEHIR TEKNIK UNIVERSITESI</t>
-  </si>
-  <si>
-    <t>Eskisehir</t>
-  </si>
-  <si>
-    <t>Turecká republika</t>
-  </si>
-  <si>
-    <t>30.53174476235694</t>
-  </si>
-  <si>
-    <t>39.8168591</t>
-  </si>
-  <si>
-    <t>https://www.eskisehir.edu.tr</t>
-  </si>
-  <si>
-    <t>Vědy o Zemi</t>
-  </si>
-  <si>
-    <t>G  ATHINE41</t>
-  </si>
-  <si>
-    <t>University of the Aegean</t>
-  </si>
-  <si>
-    <t>Mytilini</t>
-  </si>
-  <si>
-    <t>Řecká republika</t>
-  </si>
-  <si>
-    <t>24.941762048631766</t>
-  </si>
-  <si>
-    <t>37.445396200000005</t>
-  </si>
-  <si>
-    <t>https://www.aegean.gr</t>
-  </si>
-  <si>
-    <t>LT KAUNAS01</t>
-  </si>
-  <si>
-    <t>VYTAUTO DIDZIOJO UNIVERSITETAS</t>
-  </si>
-  <si>
-    <t>Kaunas</t>
-  </si>
-  <si>
-    <t>Litevská republika</t>
-  </si>
-  <si>
-    <t>23.914216535114505</t>
-  </si>
-  <si>
-    <t>54.89709905</t>
-  </si>
-  <si>
-    <t>https://www.vdu.lt</t>
-  </si>
-  <si>
-    <t>I  URBINO01</t>
-  </si>
-  <si>
-    <t>UNIVERSITA DEGLI STUDI DI URBINO</t>
-  </si>
-  <si>
-    <t>Urbino</t>
-  </si>
-  <si>
-    <t>Italská republika</t>
-  </si>
-  <si>
-    <t>12.6366992</t>
-  </si>
-  <si>
-    <t>43.7232299</t>
-  </si>
-  <si>
-    <t>https://www.uniurb.it</t>
-  </si>
-  <si>
-    <t>Biologie</t>
-  </si>
-  <si>
-    <t>SK BRATISL02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIVERZITA KOMENSKEHO V BRATISLAVE                                                                                      </t>
-  </si>
-  <si>
-    <t>Bratislava</t>
-  </si>
-  <si>
-    <t>Slovenská republika</t>
-  </si>
-  <si>
-    <t>17.1161819</t>
-  </si>
-  <si>
-    <t>48.1412324</t>
-  </si>
-  <si>
-    <t>http://www.uniba.sk</t>
+    <t>PL LODZ01</t>
+  </si>
+  <si>
+    <t>UNIWERSYTET LODZKI</t>
+  </si>
+  <si>
+    <t>19.47407557561835</t>
+  </si>
+  <si>
+    <t>51.771323699999996</t>
+  </si>
+  <si>
+    <t>https://www.uni.lodz.pl</t>
+  </si>
+  <si>
+    <t>I  CAMERIN01</t>
+  </si>
+  <si>
+    <t>UNIVERSITA DEGLI STUDI DI CAMERINO</t>
+  </si>
+  <si>
+    <t>Camerino</t>
+  </si>
+  <si>
+    <t>13.067215488690735</t>
+  </si>
+  <si>
+    <t>43.13963305</t>
+  </si>
+  <si>
+    <t>https://www.unicam.it</t>
   </si>
   <si>
     <t>TR CANAKKA01</t>
   </si>
   <si>
-    <t>Canakkale Onsekiz Mart Üniversitesi</t>
+    <t>CANAKKALE ONSEKIZ MART UNIVERSITESI</t>
   </si>
   <si>
     <t>Canakkale</t>
@@ -248,538 +1016,28 @@
     <t>https://www.comu.edu.tr</t>
   </si>
   <si>
-    <t>Biologické a příbuzné vědy</t>
-  </si>
-  <si>
-    <t>E  MALAGA01</t>
-  </si>
-  <si>
-    <t>UNIVERSIDAD DE MÁLAGA</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>Španělské království</t>
-  </si>
-  <si>
-    <t>-4.495336390634675</t>
-  </si>
-  <si>
-    <t>36.7165576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.uma.es  </t>
-  </si>
-  <si>
-    <t>D  DRESDEN02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TECHNISCHE UNIVERSITÄT DRESDEN </t>
-  </si>
-  <si>
-    <t>Dresden</t>
-  </si>
-  <si>
-    <t>Spolková republika Německo</t>
-  </si>
-  <si>
-    <t>13.735982754935176</t>
-  </si>
-  <si>
-    <t>51.028276500000004</t>
-  </si>
-  <si>
-    <t>http://www.tu-dresden.de/</t>
-  </si>
-  <si>
-    <t>RO TIMISOA01</t>
-  </si>
-  <si>
-    <t>UNIVERSITATEA DE VEST DIN TIMISOARA</t>
-  </si>
-  <si>
-    <t>Timisoara</t>
-  </si>
-  <si>
-    <t>Rumunsko</t>
-  </si>
-  <si>
-    <t>21.23126099621941</t>
-  </si>
-  <si>
-    <t>45.74732925</t>
-  </si>
-  <si>
-    <t>https://www.uvt.ro</t>
-  </si>
-  <si>
-    <t>RS NOVISAD02</t>
-  </si>
-  <si>
-    <t>UNIVERZITET U NOVOM SADU</t>
-  </si>
-  <si>
-    <t>NOVI SAD</t>
-  </si>
-  <si>
-    <t>Srbská republika</t>
-  </si>
-  <si>
-    <t>19.851175531732203</t>
-  </si>
-  <si>
-    <t>45.246226</t>
-  </si>
-  <si>
-    <t>http://www.uns.ac.rs</t>
-  </si>
-  <si>
-    <t>I  TRIESTE01</t>
-  </si>
-  <si>
-    <t>UNIVERSITA DEGLI STUDI DI TRIESTE</t>
-  </si>
-  <si>
-    <t>Trieste</t>
-  </si>
-  <si>
-    <t>13.794792540211322</t>
-  </si>
-  <si>
-    <t>45.6601694</t>
-  </si>
-  <si>
-    <t>https://www.units.it</t>
-  </si>
-  <si>
-    <t>P  LEIRIA01</t>
-  </si>
-  <si>
-    <t>INSTITUTO POLITÉCNICO DE LEIRIA</t>
-  </si>
-  <si>
-    <t>Leiria</t>
-  </si>
-  <si>
-    <t>Portugalská republika</t>
-  </si>
-  <si>
-    <t>-8.8105226085993</t>
-  </si>
-  <si>
-    <t>39.737149106966484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ipleiria.pt </t>
-  </si>
-  <si>
-    <t>Přírodní vědy, matematika a statistika</t>
-  </si>
-  <si>
-    <t>LV JELGAVA01</t>
-  </si>
-  <si>
-    <t>LATVIJAS LAUKSAIMNIECÎBAS UNIVERSITÂTE</t>
-  </si>
-  <si>
-    <t>Jelgava</t>
-  </si>
-  <si>
-    <t>Lotyšská republika</t>
-  </si>
-  <si>
-    <t>23.7136084</t>
-  </si>
-  <si>
-    <t>56.6517532</t>
-  </si>
-  <si>
-    <t>https://www.lbtu.lv</t>
-  </si>
-  <si>
-    <t>E  JAEN01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIVERSIDAD DE JAÉN </t>
-  </si>
-  <si>
-    <t>Jaén</t>
-  </si>
-  <si>
-    <t>-3.776633970633042</t>
-  </si>
-  <si>
-    <t>37.78820865</t>
-  </si>
-  <si>
-    <t>https://www.ujaen.es</t>
-  </si>
-  <si>
-    <t>TR IZMIR01</t>
-  </si>
-  <si>
-    <t>Dokuz Eylül Üniversitesi, Izmir</t>
-  </si>
-  <si>
-    <t>Izmir</t>
-  </si>
-  <si>
-    <t>27.13696496633385</t>
-  </si>
-  <si>
-    <t>38.43052955</t>
-  </si>
-  <si>
-    <t>http://www.deu.edu.tr</t>
-  </si>
-  <si>
-    <t>PL GDANSK01</t>
-  </si>
-  <si>
-    <t>UNIWERSYTET GDANSKI</t>
-  </si>
-  <si>
-    <t>Gdansk</t>
-  </si>
-  <si>
-    <t>18.57400997579134</t>
-  </si>
-  <si>
-    <t>54.396404950000004</t>
-  </si>
-  <si>
-    <t>https://www.ug.edu.pl</t>
-  </si>
-  <si>
-    <t>Biochemie</t>
-  </si>
-  <si>
-    <t>D  KAISERS01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIVERSITÄT KAISERSLAUTERN </t>
-  </si>
-  <si>
-    <t>Kaiserslautern</t>
-  </si>
-  <si>
-    <t>7.754214153273509</t>
-  </si>
-  <si>
-    <t>49.4246142</t>
-  </si>
-  <si>
-    <t>https://rptu.de/</t>
-  </si>
-  <si>
-    <t>S  UPPSALA01</t>
-  </si>
-  <si>
-    <t>UPPSALA UNIVERSITET</t>
-  </si>
-  <si>
-    <t>Uppsala</t>
-  </si>
-  <si>
-    <t>Švédské království</t>
-  </si>
-  <si>
-    <t>17.6297861</t>
-  </si>
-  <si>
-    <t>59.8576902</t>
-  </si>
-  <si>
-    <t>https://www.uu.se</t>
-  </si>
-  <si>
-    <t>SK RUZOMBE01</t>
-  </si>
-  <si>
-    <t>KATOLÍCKA UNIVERZITA V RUZOMBERKU</t>
-  </si>
-  <si>
-    <t>Ružomberok</t>
-  </si>
-  <si>
-    <t>20.5875762</t>
-  </si>
-  <si>
-    <t>49.0223689</t>
-  </si>
-  <si>
-    <t>http://www.ku.sk/en/</t>
-  </si>
-  <si>
-    <t>HR ZAGREB11</t>
-  </si>
-  <si>
-    <t>ALGEBRA UNIVERSITY COLLEGE</t>
-  </si>
-  <si>
-    <t>ZAGREB</t>
-  </si>
-  <si>
-    <t>15.941112901216494</t>
-  </si>
-  <si>
-    <t>45.810512700000004</t>
-  </si>
-  <si>
-    <t>https://www.algebra.hr</t>
-  </si>
-  <si>
-    <t>F  ANGERS08</t>
-  </si>
-  <si>
-    <t>École Supérieure d'Agricultures</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Francouzská republika</t>
-  </si>
-  <si>
-    <t>-0.5441803899948905</t>
-  </si>
-  <si>
-    <t>47.459291300000004</t>
-  </si>
-  <si>
-    <t>http://www.groupe-esa.com</t>
-  </si>
-  <si>
-    <t>D  KOTHEN01</t>
-  </si>
-  <si>
-    <t>HOCHSCHULE ANHALT (FH)</t>
-  </si>
-  <si>
-    <t>Kothen</t>
-  </si>
-  <si>
-    <t>11.983290112147248</t>
-  </si>
-  <si>
-    <t>51.745161800000005</t>
-  </si>
-  <si>
-    <t>https://www.hs-anhalt.de</t>
-  </si>
-  <si>
-    <t>BG ROUSSE01</t>
-  </si>
-  <si>
-    <t>Angel Kanchev University of Ruse</t>
-  </si>
-  <si>
-    <t>Rousse</t>
-  </si>
-  <si>
-    <t>Bulharská republika</t>
-  </si>
-  <si>
-    <t>25.972612663551303</t>
-  </si>
-  <si>
-    <t>43.85348155</t>
-  </si>
-  <si>
-    <t>https://www.uni-ruse.bg</t>
-  </si>
-  <si>
-    <t>SI KOPER03</t>
-  </si>
-  <si>
-    <t>UNIVERZA NA PRIMORSKEM</t>
-  </si>
-  <si>
-    <t>Koper</t>
-  </si>
-  <si>
-    <t>Slovinská republika</t>
-  </si>
-  <si>
-    <t>13.7293636</t>
-  </si>
-  <si>
-    <t>45.5482932</t>
-  </si>
-  <si>
-    <t>https://www.upr.si</t>
-  </si>
-  <si>
-    <t>EE TALLINN05</t>
-  </si>
-  <si>
-    <t>Tallinna Ülikool</t>
-  </si>
-  <si>
-    <t>Tallinn</t>
-  </si>
-  <si>
-    <t>Estonská republika</t>
-  </si>
-  <si>
-    <t>24.772347058941484</t>
-  </si>
-  <si>
-    <t>59.4393125</t>
-  </si>
-  <si>
-    <t>https://www.tlu.ee</t>
-  </si>
-  <si>
-    <t>TR TRABZON04</t>
-  </si>
-  <si>
-    <t>TRABZON UNIVERSITY</t>
-  </si>
-  <si>
-    <t>TRABZON</t>
-  </si>
-  <si>
-    <t>39.81261147848775</t>
-  </si>
-  <si>
-    <t>40.9853391</t>
-  </si>
-  <si>
-    <t>https://trabzon.edu.tr</t>
-  </si>
-  <si>
-    <t>D  WURZBUR01</t>
-  </si>
-  <si>
-    <t>Julius-Maximilians Universität Würzburg</t>
-  </si>
-  <si>
-    <t>Würzburg</t>
-  </si>
-  <si>
-    <t>9.971655766351642</t>
-  </si>
-  <si>
-    <t>49.780603150000005</t>
-  </si>
-  <si>
-    <t>http://www.uni-wuerzburg.de</t>
-  </si>
-  <si>
-    <t>SK PRESOV01</t>
-  </si>
-  <si>
-    <t>PRESOVSKÁ UNIVERZITA V PRESOVE</t>
-  </si>
-  <si>
-    <t>Prešov</t>
-  </si>
-  <si>
-    <t>21.235015177927682</t>
-  </si>
-  <si>
-    <t>48.989434</t>
-  </si>
-  <si>
-    <t>https://www.unipo.sk</t>
-  </si>
-  <si>
-    <t>PL LODZ01</t>
-  </si>
-  <si>
-    <t>UNIWERSYTET LÓDZKI</t>
-  </si>
-  <si>
-    <t>19.47407557561835</t>
-  </si>
-  <si>
-    <t>51.771323699999996</t>
-  </si>
-  <si>
-    <t>https://www.uni.lodz.pl</t>
-  </si>
-  <si>
-    <t>I  CAMERIN01</t>
-  </si>
-  <si>
-    <t>UNIVERSITA DEGLI STUDI DI CAMERINO</t>
-  </si>
-  <si>
-    <t>Camerino</t>
-  </si>
-  <si>
-    <t>13.067215488690735</t>
-  </si>
-  <si>
-    <t>43.13963305</t>
-  </si>
-  <si>
-    <t>https://www.unicam.it</t>
-  </si>
-  <si>
-    <t>TR KARS01</t>
-  </si>
-  <si>
-    <t>Kafkas Universitesi</t>
-  </si>
-  <si>
-    <t>Kars</t>
-  </si>
-  <si>
-    <t>43.05656720268237</t>
-  </si>
-  <si>
-    <t>40.58094665</t>
-  </si>
-  <si>
-    <t>https://www.kafkas.edu.tr</t>
-  </si>
-  <si>
-    <t>Vědy o neživé přírodě</t>
-  </si>
-  <si>
-    <t>D  GIESSEN01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JUSTUS-LIEBIG-UNIVERSITÄT GIESSEN </t>
-  </si>
-  <si>
-    <t>Giessen</t>
-  </si>
-  <si>
-    <t>8.699976819474603</t>
-  </si>
-  <si>
-    <t>50.573589150000004</t>
-  </si>
-  <si>
-    <t>https://www.uni-giessen.de</t>
-  </si>
-  <si>
-    <t>D  SIGMARI01</t>
-  </si>
-  <si>
-    <t>FACHHOCHSCHULE ALBSTADT-SIGMARINGEN</t>
-  </si>
-  <si>
-    <t>Sigmaringen</t>
-  </si>
-  <si>
-    <t>9.240396348743413</t>
-  </si>
-  <si>
-    <t>48.08835285</t>
-  </si>
-  <si>
-    <t>https://www.hs-albsig.de</t>
+    <t>PL POZNAN01</t>
+  </si>
+  <si>
+    <t>UNIWERSYTET IM. ADAMA MICKIEWICZA WPOZNANIU</t>
+  </si>
+  <si>
+    <t>Poznan</t>
+  </si>
+  <si>
+    <t>16.915612725194535</t>
+  </si>
+  <si>
+    <t>52.40816565</t>
+  </si>
+  <si>
+    <t>https://www.amu.edu.pl</t>
   </si>
   <si>
     <t>TR ANTALYA04</t>
   </si>
   <si>
-    <t>ALANYA UNIVERSITY</t>
+    <t>Alanya Üniversitesi</t>
   </si>
   <si>
     <t>Alanya</t>
@@ -792,298 +1050,24 @@
   </si>
   <si>
     <t>https://www.alanyauniversity.edu.tr/</t>
-  </si>
-  <si>
-    <t>F  TOULOUS15</t>
-  </si>
-  <si>
-    <t>École d'ingénieurs de Purpan</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>1.3965155228102595</t>
-  </si>
-  <si>
-    <t>43.6024928</t>
-  </si>
-  <si>
-    <t>https://www.purpan.fr</t>
-  </si>
-  <si>
-    <t>Životní prostředí</t>
-  </si>
-  <si>
-    <t>SK BANSKA01</t>
-  </si>
-  <si>
-    <t>Univerzita Mateja Bela v Banskej Bystrici</t>
-  </si>
-  <si>
-    <t>Bánská Bystrica</t>
-  </si>
-  <si>
-    <t>19.145530921337212</t>
-  </si>
-  <si>
-    <t>48.73317955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.umb.sk </t>
-  </si>
-  <si>
-    <t>D  ROSTOCK01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIVERSITÄT ROSTOCK </t>
-  </si>
-  <si>
-    <t>Rostock</t>
-  </si>
-  <si>
-    <t>12.6856683</t>
-  </si>
-  <si>
-    <t>54.4308835</t>
-  </si>
-  <si>
-    <t>https://www.uni-rostock.de</t>
-  </si>
-  <si>
-    <t>Programy a kvalifikace – všeobecné vzdělání</t>
-  </si>
-  <si>
-    <t>RO BUCURES18</t>
-  </si>
-  <si>
-    <t>UNIVERSITATEA ROMANO AMERICANA</t>
-  </si>
-  <si>
-    <t>Bucharest</t>
-  </si>
-  <si>
-    <t>26.065691841236948</t>
-  </si>
-  <si>
-    <t>44.472983799999994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.rau.ro </t>
-  </si>
-  <si>
-    <t>Zemědělství, lesnictví, rybářství a veterinářství</t>
-  </si>
-  <si>
-    <t>PL POZNAN01</t>
-  </si>
-  <si>
-    <t>Uniwersytet im. Adama Mickiewicza w Poznaniu</t>
-  </si>
-  <si>
-    <t>Poznan</t>
-  </si>
-  <si>
-    <t>16.915612725194535</t>
-  </si>
-  <si>
-    <t>52.40816565</t>
-  </si>
-  <si>
-    <t>https://www.amu.edu.pl</t>
-  </si>
-  <si>
-    <t>SK TRNAVA02</t>
-  </si>
-  <si>
-    <t>Univerzita Svätého Cyrila a Metóda</t>
-  </si>
-  <si>
-    <t>Trnava</t>
-  </si>
-  <si>
-    <t>17.58875336850855</t>
-  </si>
-  <si>
-    <t>48.3832728</t>
-  </si>
-  <si>
-    <t>https://www.ucm.sk</t>
-  </si>
-  <si>
-    <t>D  DORTMUN01</t>
-  </si>
-  <si>
-    <t>Technische Universität Dortmund</t>
-  </si>
-  <si>
-    <t>Dortmund</t>
-  </si>
-  <si>
-    <t>7.4122738886856805</t>
-  </si>
-  <si>
-    <t>51.49148435</t>
-  </si>
-  <si>
-    <t>https://www.tu-dortmund.de</t>
-  </si>
-  <si>
-    <t>Architektura a urbanismus</t>
-  </si>
-  <si>
-    <t>PL SLUPSK01</t>
-  </si>
-  <si>
-    <t>Uniwersytet Pomorski w Słupsku</t>
-  </si>
-  <si>
-    <t>Slupsk</t>
-  </si>
-  <si>
-    <t>17.04308372341758</t>
-  </si>
-  <si>
-    <t>54.452308849999994</t>
-  </si>
-  <si>
-    <t>https://www.upsl.edu.pl</t>
-  </si>
-  <si>
-    <t>RO BUCURES09</t>
-  </si>
-  <si>
-    <t>UNIVERSITATEA DIN BUCURESTI</t>
-  </si>
-  <si>
-    <t>26.10092625223488</t>
-  </si>
-  <si>
-    <t>44.43564445</t>
-  </si>
-  <si>
-    <t>https://www.unibuc.ro</t>
-  </si>
-  <si>
-    <t>D  LEIPZIG01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIVERSITÄT LEIPZIG </t>
-  </si>
-  <si>
-    <t>Leipzig</t>
-  </si>
-  <si>
-    <t>12.37863856850984</t>
-  </si>
-  <si>
-    <t>51.33845385</t>
-  </si>
-  <si>
-    <t>http://www.uni-leipzig.de</t>
-  </si>
-  <si>
-    <t>TR ANTALYA01</t>
-  </si>
-  <si>
-    <t>Akdeniz Üniversitesi</t>
-  </si>
-  <si>
-    <t>Antalya</t>
-  </si>
-  <si>
-    <t>30.650947292742977</t>
-  </si>
-  <si>
-    <t>36.8937844</t>
-  </si>
-  <si>
-    <t>http://www.akdeniz.edu.tr</t>
-  </si>
-  <si>
-    <t>PL OPOLE01</t>
-  </si>
-  <si>
-    <t>UNIWERSYTET OPOLSKI</t>
-  </si>
-  <si>
-    <t>Opole</t>
-  </si>
-  <si>
-    <t>17.93144882718738</t>
-  </si>
-  <si>
-    <t>50.673363949999995</t>
-  </si>
-  <si>
-    <t>https://www.uni.opole.pl</t>
-  </si>
-  <si>
-    <t>HU BUDAPES01</t>
-  </si>
-  <si>
-    <t>EÖTVÖS LORÁND TUDOMÁNYEGYETEM</t>
-  </si>
-  <si>
-    <t>Budapest</t>
-  </si>
-  <si>
-    <t>Maďarsko</t>
-  </si>
-  <si>
-    <t>19.061899330588723</t>
-  </si>
-  <si>
-    <t>47.4934799</t>
-  </si>
-  <si>
-    <t>https://www.elte.hu</t>
-  </si>
-  <si>
-    <t>S  UMEA01</t>
-  </si>
-  <si>
-    <t>UMEA UNIVERSITET</t>
-  </si>
-  <si>
-    <t>Umea</t>
-  </si>
-  <si>
-    <t>20.304316311493196</t>
-  </si>
-  <si>
-    <t>63.82177625</t>
-  </si>
-  <si>
-    <t>https://www.umu.se</t>
-  </si>
-  <si>
-    <t>E  MADRID04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIVERSIDAD AUTÓNOMA DE MADRID </t>
-  </si>
-  <si>
-    <t>Madrid</t>
-  </si>
-  <si>
-    <t>-3.6949577655963672</t>
-  </si>
-  <si>
-    <t>40.5453765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.uam.es </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1106,16 +1090,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1441,12 +1430,18 @@
   <dimension ref="A1:H98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="38.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1478,2619 +1473,2595 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>183</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>185</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>183</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>185</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>22</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>183</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>185</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>296</v>
+        <v>229</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>297</v>
+        <v>230</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>298</v>
+        <v>231</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>299</v>
+        <v>232</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>300</v>
+        <v>233</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>301</v>
+        <v>234</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>302</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>84</v>
+        <v>167</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>85</v>
+        <v>168</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>87</v>
+        <v>169</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>88</v>
+        <v>170</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>89</v>
+        <v>171</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>84</v>
+        <v>167</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>85</v>
+        <v>168</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>87</v>
+        <v>169</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>88</v>
+        <v>170</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>89</v>
+        <v>171</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>239</v>
+        <v>76</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>240</v>
+        <v>77</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>241</v>
+        <v>78</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>242</v>
+        <v>79</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>243</v>
+        <v>80</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>244</v>
+        <v>81</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>314</v>
+        <v>54</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>315</v>
+        <v>55</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>316</v>
+        <v>56</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>317</v>
+        <v>57</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>318</v>
+        <v>58</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>319</v>
+        <v>59</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>270</v>
+        <v>114</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>271</v>
+        <v>115</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>272</v>
+        <v>116</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>273</v>
+        <v>117</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>274</v>
+        <v>118</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>275</v>
+        <v>119</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>263</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>270</v>
+        <v>114</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>271</v>
+        <v>115</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>272</v>
+        <v>116</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>273</v>
+        <v>117</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>274</v>
+        <v>118</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>275</v>
+        <v>119</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>39</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>245</v>
+        <v>159</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>246</v>
+        <v>160</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>247</v>
+        <v>161</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>248</v>
+        <v>162</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>249</v>
+        <v>163</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>250</v>
+        <v>164</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>75</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>245</v>
+        <v>159</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>246</v>
+        <v>160</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>247</v>
+        <v>161</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>248</v>
+        <v>162</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>249</v>
+        <v>163</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>250</v>
+        <v>164</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>31</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>245</v>
+        <v>159</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>246</v>
+        <v>160</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>247</v>
+        <v>161</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>248</v>
+        <v>162</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>249</v>
+        <v>163</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>250</v>
+        <v>164</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>209</v>
+        <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>210</v>
+        <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>211</v>
+        <v>10</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>214</v>
+        <v>13</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>209</v>
+        <v>8</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>210</v>
+        <v>9</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>211</v>
+        <v>10</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>213</v>
+        <v>13</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>214</v>
+        <v>14</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>209</v>
+        <v>8</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>210</v>
+        <v>9</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>211</v>
+        <v>10</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>213</v>
+        <v>13</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>214</v>
+        <v>14</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>209</v>
+        <v>8</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>210</v>
+        <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>211</v>
+        <v>10</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>213</v>
+        <v>13</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>214</v>
+        <v>14</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>209</v>
+        <v>8</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>210</v>
+        <v>9</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>211</v>
+        <v>10</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>213</v>
+        <v>13</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>214</v>
+        <v>14</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>30</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>345</v>
+        <v>60</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>346</v>
+        <v>61</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>347</v>
+        <v>62</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>348</v>
+        <v>64</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>349</v>
+        <v>65</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>350</v>
+        <v>66</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>76</v>
+        <v>240</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>77</v>
+        <v>241</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>78</v>
+        <v>242</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>80</v>
+        <v>243</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>81</v>
+        <v>244</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>82</v>
+        <v>245</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>196</v>
+        <v>288</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>197</v>
+        <v>289</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>198</v>
+        <v>290</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>199</v>
+        <v>291</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>200</v>
+        <v>292</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>201</v>
+        <v>293</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>202</v>
+        <v>294</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>174</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>75</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>174</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>263</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>174</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>283</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>263</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>263</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>41</v>
+        <v>264</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>42</v>
+        <v>265</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>46</v>
+        <v>267</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>31</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>332</v>
+        <v>151</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>333</v>
+        <v>152</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>334</v>
+        <v>153</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>335</v>
+        <v>154</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>336</v>
+        <v>155</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>337</v>
+        <v>156</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>338</v>
+        <v>157</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>226</v>
+        <v>319</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>227</v>
+        <v>320</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>228</v>
+        <v>321</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>57</v>
+        <v>212</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>229</v>
+        <v>322</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>230</v>
+        <v>323</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>231</v>
+        <v>324</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>104</v>
+        <v>268</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>105</v>
+        <v>269</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>106</v>
+        <v>270</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>57</v>
+        <v>212</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>107</v>
+        <v>271</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>108</v>
+        <v>272</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>109</v>
+        <v>273</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>54</v>
+        <v>209</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>55</v>
+        <v>210</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>56</v>
+        <v>211</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>57</v>
+        <v>212</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>58</v>
+        <v>213</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>59</v>
+        <v>214</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>60</v>
+        <v>215</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>61</v>
+        <v>216</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>54</v>
+        <v>209</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>55</v>
+        <v>210</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>56</v>
+        <v>211</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>57</v>
+        <v>212</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>58</v>
+        <v>213</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>59</v>
+        <v>214</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>60</v>
+        <v>215</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>143</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>281</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>48</v>
+        <v>282</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>49</v>
+        <v>283</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>51</v>
+        <v>285</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>52</v>
+        <v>286</v>
       </c>
       <c r="G45" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>118</v>
+        <v>301</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>119</v>
+        <v>302</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>120</v>
+        <v>303</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>121</v>
+        <v>304</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>122</v>
+        <v>305</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>123</v>
+        <v>306</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>124</v>
+        <v>307</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>238</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>137</v>
+        <v>223</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>138</v>
+        <v>224</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>139</v>
+        <v>225</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>140</v>
+        <v>226</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>141</v>
+        <v>227</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>142</v>
+        <v>228</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>143</v>
+        <v>216</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>137</v>
+        <v>223</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>138</v>
+        <v>224</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>139</v>
+        <v>225</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>140</v>
+        <v>226</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>141</v>
+        <v>227</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>142</v>
+        <v>228</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>31</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>221</v>
+        <v>314</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>222</v>
+        <v>315</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>223</v>
+        <v>316</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>224</v>
+        <v>317</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>225</v>
+        <v>318</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>8</v>
+        <v>308</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>9</v>
+        <v>309</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>12</v>
+        <v>311</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>13</v>
+        <v>312</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>326</v>
+        <v>217</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>327</v>
+        <v>218</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>328</v>
+        <v>219</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>329</v>
+        <v>220</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>330</v>
+        <v>221</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>331</v>
+        <v>222</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>326</v>
+        <v>217</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>327</v>
+        <v>218</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>328</v>
+        <v>219</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>329</v>
+        <v>220</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>330</v>
+        <v>221</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>331</v>
+        <v>222</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>284</v>
+        <v>331</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>285</v>
+        <v>332</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>286</v>
+        <v>333</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>287</v>
+        <v>334</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>288</v>
+        <v>335</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>289</v>
+        <v>336</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>303</v>
+        <v>252</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>304</v>
+        <v>253</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>305</v>
+        <v>254</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>307</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
       <c r="G59" s="1" t="s">
-        <v>308</v>
+        <v>255</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>309</v>
+        <v>204</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>310</v>
+        <v>205</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>279</v>
+        <v>128</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>311</v>
+        <v>206</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>312</v>
+        <v>207</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>313</v>
+        <v>208</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>277</v>
+        <v>126</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>278</v>
+        <v>127</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>279</v>
+        <v>128</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>280</v>
+        <v>129</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>281</v>
+        <v>130</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>282</v>
+        <v>131</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="F62" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="G62" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="H62" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="F63" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="G63" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F63" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="H63" s="1" t="s">
-        <v>75</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="F64" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="G64" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="H64" s="1" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>339</v>
+        <v>185</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>340</v>
+        <v>186</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>341</v>
+        <v>187</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>342</v>
+        <v>189</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>343</v>
+        <v>190</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>344</v>
+        <v>191</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>151</v>
+        <v>193</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>152</v>
+        <v>194</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>154</v>
+        <v>195</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>155</v>
+        <v>196</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>143</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>151</v>
+        <v>193</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>152</v>
+        <v>194</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>154</v>
+        <v>195</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>155</v>
+        <v>196</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>39</v>
+        <v>216</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>151</v>
+        <v>193</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>152</v>
+        <v>194</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>154</v>
+        <v>195</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>155</v>
+        <v>196</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>189</v>
+        <v>256</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>190</v>
+        <v>257</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>191</v>
+        <v>258</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>192</v>
+        <v>259</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>193</v>
+        <v>260</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>194</v>
+        <v>261</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>195</v>
+        <v>262</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>75</v>
+        <v>132</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>189</v>
+        <v>256</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>190</v>
+        <v>257</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>191</v>
+        <v>258</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>192</v>
+        <v>259</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>193</v>
+        <v>260</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>194</v>
+        <v>261</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>195</v>
+        <v>262</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>276</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>189</v>
+        <v>256</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>190</v>
+        <v>257</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>191</v>
+        <v>258</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>192</v>
+        <v>259</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>193</v>
+        <v>260</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>194</v>
+        <v>261</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>195</v>
+        <v>262</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>15</v>
+        <v>280</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>264</v>
+        <v>95</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>265</v>
+        <v>96</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>266</v>
+        <v>97</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>267</v>
+        <v>99</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>268</v>
+        <v>100</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>269</v>
+        <v>101</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>215</v>
+        <v>295</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>216</v>
+        <v>296</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>217</v>
+        <v>297</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>218</v>
+        <v>298</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>219</v>
+        <v>299</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>157</v>
+        <v>102</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>159</v>
+        <v>104</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>157</v>
+        <v>102</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H80" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>157</v>
+        <v>102</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>159</v>
+        <v>104</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>238</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>157</v>
+        <v>102</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>159</v>
+        <v>104</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>157</v>
+        <v>102</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>159</v>
+        <v>104</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>263</v>
+        <v>184</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>157</v>
+        <v>102</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>159</v>
+        <v>104</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>290</v>
+        <v>236</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>291</v>
+        <v>237</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>292</v>
+        <v>238</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>294</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
       <c r="G85" s="1" t="s">
-        <v>295</v>
+        <v>239</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>320</v>
+        <v>38</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>321</v>
+        <v>39</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>322</v>
+        <v>40</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>323</v>
+        <v>42</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>324</v>
+        <v>43</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>325</v>
+        <v>44</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>251</v>
+        <v>337</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>252</v>
+        <v>338</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>253</v>
+        <v>339</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>254</v>
+        <v>340</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>255</v>
+        <v>341</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>256</v>
+        <v>342</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>69</v>
+        <v>325</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>70</v>
+        <v>326</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>71</v>
+        <v>327</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>72</v>
+        <v>328</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>73</v>
+        <v>329</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>74</v>
+        <v>330</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>30</v>
+        <v>165</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>131</v>
+        <v>246</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>132</v>
+        <v>247</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>133</v>
+        <v>248</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>134</v>
+        <v>249</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>135</v>
+        <v>250</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>136</v>
+        <v>251</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>131</v>
+        <v>246</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>132</v>
+        <v>247</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>133</v>
+        <v>248</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>134</v>
+        <v>249</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>135</v>
+        <v>250</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>136</v>
+        <v>251</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>203</v>
+        <v>108</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>204</v>
+        <v>109</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>205</v>
+        <v>110</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>206</v>
+        <v>111</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>207</v>
+        <v>112</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>208</v>
+        <v>113</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>203</v>
+        <v>108</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>204</v>
+        <v>109</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>205</v>
+        <v>110</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>206</v>
+        <v>111</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>207</v>
+        <v>112</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>208</v>
+        <v>113</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>31</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G55" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G49" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G34" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G35" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G89" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G33" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G45" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="G43" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G77" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="G88" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G6" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="G62" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G65" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="G42" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G46" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G18" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G49" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G34" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G86" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G65" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G12" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G89" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G62" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G79" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G97" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G13" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="G77" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G39" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
     <hyperlink ref="G23" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G94" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="G52" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G9" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="G63" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G70" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="G79" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G39" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="G10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G40" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G50" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="G80" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G15" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="G35" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G6" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
     <hyperlink ref="G28" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G10" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="G2" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G90" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="G73" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="G44" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="G27" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="G66" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="G97" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="G67" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="G3" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="G4" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="G18" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="G7" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="G78" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="G54" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="G80" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G41" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="G96" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="G81" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="G8" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="G15" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="G24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="G87" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="G31" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="G11" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="G29" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="G36" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="G98" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="G13" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="G64" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="G95" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="G37" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="G16" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="G32" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="G19" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="G91" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="G74" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="G50" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="G20" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="G30" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="G58" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="G82" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="G85" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="G5" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="G75" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="G59" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="G21" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="G60" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="G51" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="G12" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="G86" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="G56" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="G92" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="G40" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="G38" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="G71" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="G83" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="G69" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="G14" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="G72" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="G53" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="G68" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="G84" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="G57" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="G93" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="G22" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="G17" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="G9" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="G14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G36" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="G69" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G90" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="G19" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G70" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="G96" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G60" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="G43" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G20" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="G56" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G52" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="G5" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G66" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="G85" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G94" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="G7" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G67" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="G59" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="G73" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="G16" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="G33" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="G51" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="G17" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="G95" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="G3" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="G98" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="G71" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="G42" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="G91" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="G21" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="G68" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="G92" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="G63" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="G81" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="G82" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="G31" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="G64" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="G74" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="G75" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="G45" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="G27" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="G78" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="G32" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="G72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="G46" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="G44" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="G57" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="G37" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="G55" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="G11" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="G4" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="G54" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="G22" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="G29" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="G53" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="G93" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="G83" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="G30" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="G41" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="G88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="G84" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="G58" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="G87" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="G38" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/schools.xlsx
+++ b/schools.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="390">
   <si>
     <t>ERASMUS CODE</t>
   </si>
@@ -46,21 +46,1095 @@
     <t>Obory</t>
   </si>
   <si>
+    <t>PL LODZ02</t>
+  </si>
+  <si>
+    <t>KI</t>
+  </si>
+  <si>
+    <t>POLITECHNIKA LODZKA</t>
+  </si>
+  <si>
+    <t>Lodz</t>
+  </si>
+  <si>
+    <t>Polská republika</t>
+  </si>
+  <si>
+    <t>19.4529575</t>
+  </si>
+  <si>
+    <t>51.752577</t>
+  </si>
+  <si>
+    <t>https://www.p.lodz.pl</t>
+  </si>
+  <si>
+    <t>0510</t>
+  </si>
+  <si>
+    <t>Biologické a příbuzné vědy</t>
+  </si>
+  <si>
+    <t>F  TOULOUS15</t>
+  </si>
+  <si>
+    <t>KBI, KGEO</t>
+  </si>
+  <si>
+    <t>ECOLE D'INGENIEURS DE PURPAN</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Francouzská republika</t>
+  </si>
+  <si>
+    <t>1.3965155228102595</t>
+  </si>
+  <si>
+    <t>43.6024928</t>
+  </si>
+  <si>
+    <t>https://www.purpan.fr</t>
+  </si>
+  <si>
+    <t>0532</t>
+  </si>
+  <si>
+    <t>Vědy o Zemi</t>
+  </si>
+  <si>
+    <t>SI KOPER03</t>
+  </si>
+  <si>
+    <t>KBI, KI</t>
+  </si>
+  <si>
+    <t>UNIVERZA NA PRIMORSKEM UNIVERSITA DEL LITORALE</t>
+  </si>
+  <si>
+    <t>Koper</t>
+  </si>
+  <si>
+    <t>Slovinská republika</t>
+  </si>
+  <si>
+    <t>13.7268097</t>
+  </si>
+  <si>
+    <t>45.5480962</t>
+  </si>
+  <si>
+    <t>https://www.upr.si</t>
+  </si>
+  <si>
+    <t>0532, 061, 051</t>
+  </si>
+  <si>
+    <t>Informační a komunikační technologie (ICT)</t>
+  </si>
+  <si>
+    <t>RO BUCURES09</t>
+  </si>
+  <si>
+    <t>KGEO</t>
+  </si>
+  <si>
+    <t>UNIVERSITATEA DIN BUCURESTI</t>
+  </si>
+  <si>
+    <t>Bucharest</t>
+  </si>
+  <si>
+    <t>Rumunsko</t>
+  </si>
+  <si>
+    <t>26.10092625223488</t>
+  </si>
+  <si>
+    <t>44.43564445</t>
+  </si>
+  <si>
+    <t>https://www.unibuc.ro</t>
+  </si>
+  <si>
+    <t>0533</t>
+  </si>
+  <si>
+    <t>Fyzika</t>
+  </si>
+  <si>
+    <t>SK BRATISL02</t>
+  </si>
+  <si>
+    <t>UNIVERZITA KOMENSKEHO V BRATISLAVE</t>
+  </si>
+  <si>
+    <t>Bratislava</t>
+  </si>
+  <si>
+    <t>Slovenská republika</t>
+  </si>
+  <si>
+    <t>17.13352777780252</t>
+  </si>
+  <si>
+    <t>48.159890700000005</t>
+  </si>
+  <si>
+    <t>http://www.uniba.sk</t>
+  </si>
+  <si>
+    <t>061</t>
+  </si>
+  <si>
+    <t>TR TRABZON04</t>
+  </si>
+  <si>
+    <t>KCH, KMA</t>
+  </si>
+  <si>
+    <t>TRABZON UNIVERSITY</t>
+  </si>
+  <si>
+    <t>TRABZON</t>
+  </si>
+  <si>
+    <t>Turecká republika</t>
+  </si>
+  <si>
+    <t>39.60852063412131</t>
+  </si>
+  <si>
+    <t>41.00981805</t>
+  </si>
+  <si>
+    <t>https://trabzon.edu.tr</t>
+  </si>
+  <si>
+    <t>F  ANGERS08</t>
+  </si>
+  <si>
+    <t>ASSOCIATION GROUPE ESA</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>-0.5441803899948905</t>
+  </si>
+  <si>
+    <t>47.459291300000004</t>
+  </si>
+  <si>
+    <t>http://www.groupe-esa.com</t>
+  </si>
+  <si>
+    <t>BG ROUSSE01</t>
+  </si>
+  <si>
+    <t>KI, KMA, NANO</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF RUSE ANGEL KANCHEV</t>
+  </si>
+  <si>
+    <t>Rousse</t>
+  </si>
+  <si>
+    <t>Bulharská republika</t>
+  </si>
+  <si>
+    <t>25.972612663551303</t>
+  </si>
+  <si>
+    <t>43.85348155</t>
+  </si>
+  <si>
+    <t>https://www.uni-ruse.bg</t>
+  </si>
+  <si>
+    <t>061, 0610</t>
+  </si>
+  <si>
+    <t>PL SLUPSK01</t>
+  </si>
+  <si>
+    <t>KBI</t>
+  </si>
+  <si>
+    <t>AKADEMIA POMORSKA W SLUPSKU</t>
+  </si>
+  <si>
+    <t>Slupsk</t>
+  </si>
+  <si>
+    <t>17.0423326</t>
+  </si>
+  <si>
+    <t>54.4547071</t>
+  </si>
+  <si>
+    <t>https://www.upsl.edu.pl</t>
+  </si>
+  <si>
+    <t>051</t>
+  </si>
+  <si>
+    <t>G  ATHINE41</t>
+  </si>
+  <si>
+    <t>PANEPISTIMIO AIGAIOU</t>
+  </si>
+  <si>
+    <t>Mytilini</t>
+  </si>
+  <si>
+    <t>Řecká republika</t>
+  </si>
+  <si>
+    <t>https://www.aegean.gr</t>
+  </si>
+  <si>
+    <t>0540, 0530, 0610</t>
+  </si>
+  <si>
+    <t>Matematika a statistika</t>
+  </si>
+  <si>
+    <t>Vědy o neživé přírodě</t>
+  </si>
+  <si>
+    <t>PL LODZ01</t>
+  </si>
+  <si>
+    <t>UNIWERSYTET LODZKI</t>
+  </si>
+  <si>
+    <t>19.47407557561835</t>
+  </si>
+  <si>
+    <t>51.771323699999996</t>
+  </si>
+  <si>
+    <t>https://www.uni.lodz.pl</t>
+  </si>
+  <si>
+    <t>0511</t>
+  </si>
+  <si>
+    <t>Biologie</t>
+  </si>
+  <si>
+    <t>PL CZESTOC01</t>
+  </si>
+  <si>
+    <t>KI, KMA, KCH</t>
+  </si>
+  <si>
+    <t>POLITECHNIKA CZESTOCHOWSKA</t>
+  </si>
+  <si>
+    <t>Czestochowa</t>
+  </si>
+  <si>
+    <t>19.115807327479168</t>
+  </si>
+  <si>
+    <t>50.822852350000005</t>
+  </si>
+  <si>
+    <t>https://www.pcz.pl</t>
+  </si>
+  <si>
+    <t>0531, 0540</t>
+  </si>
+  <si>
+    <t>Chemie</t>
+  </si>
+  <si>
+    <t>RS NOVISAD02</t>
+  </si>
+  <si>
+    <t>PRF</t>
+  </si>
+  <si>
+    <t>UNIVERZITET U NOVOM SADU</t>
+  </si>
+  <si>
+    <t>NOVI SAD</t>
+  </si>
+  <si>
+    <t>Srbská republika</t>
+  </si>
+  <si>
+    <t>19.851175531732203</t>
+  </si>
+  <si>
+    <t>45.246226</t>
+  </si>
+  <si>
+    <t>http://www.uns.ac.rs</t>
+  </si>
+  <si>
+    <t>D  KAISERS01</t>
+  </si>
+  <si>
+    <t>KFY</t>
+  </si>
+  <si>
+    <t>RHEINLAND-PFALZISCHE TECHNISCHE UNIVERSITAT</t>
+  </si>
+  <si>
+    <t>Kaiserslautern</t>
+  </si>
+  <si>
+    <t>Spolková republika Německo</t>
+  </si>
+  <si>
+    <t>7.754214153273509</t>
+  </si>
+  <si>
+    <t>49.4246142</t>
+  </si>
+  <si>
+    <t>https://rptu.de/</t>
+  </si>
+  <si>
+    <t>051, 052, 08</t>
+  </si>
+  <si>
+    <t>Životní prostředí</t>
+  </si>
+  <si>
+    <t>Zemědělství, lesnictví, rybářství a veterinářství</t>
+  </si>
+  <si>
+    <t>S  UMEA01</t>
+  </si>
+  <si>
+    <t>UMEA UNIVERSITET</t>
+  </si>
+  <si>
+    <t>Umea</t>
+  </si>
+  <si>
+    <t>Švédské království</t>
+  </si>
+  <si>
+    <t>20.304316311493196</t>
+  </si>
+  <si>
+    <t>63.82177625</t>
+  </si>
+  <si>
+    <t>https://www.umu.se</t>
+  </si>
+  <si>
+    <t>0532, 052</t>
+  </si>
+  <si>
+    <t>TR CANAKKA01</t>
+  </si>
+  <si>
+    <t>CANAKKALE ONSEKIZ MART UNIVERSITESI</t>
+  </si>
+  <si>
+    <t>Canakkale</t>
+  </si>
+  <si>
+    <t>26.421464811380968</t>
+  </si>
+  <si>
+    <t>40.1120066</t>
+  </si>
+  <si>
+    <t>https://www.comu.edu.tr</t>
+  </si>
+  <si>
+    <t>E  MADRID04</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD AUTONOMA DE MADRID</t>
+  </si>
+  <si>
+    <t>Madrid</t>
+  </si>
+  <si>
+    <t>Španělské království</t>
+  </si>
+  <si>
+    <t>-3.6949577655963672</t>
+  </si>
+  <si>
+    <t>40.5453765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.uam.es </t>
+  </si>
+  <si>
+    <t>EE TALLINN05</t>
+  </si>
+  <si>
+    <t>KBIO</t>
+  </si>
+  <si>
+    <t>TALLINN UNIVERSITY</t>
+  </si>
+  <si>
+    <t>Tallinn</t>
+  </si>
+  <si>
+    <t>Estonská republika</t>
+  </si>
+  <si>
+    <t>24.772347058941484</t>
+  </si>
+  <si>
+    <t>59.4393125</t>
+  </si>
+  <si>
+    <t>https://www.tlu.ee</t>
+  </si>
+  <si>
+    <t>052, 05, 051, 054, 053, 061</t>
+  </si>
+  <si>
+    <t>Přírodní vědy, matematika a statistika</t>
+  </si>
+  <si>
+    <t>PL GDANSK01</t>
+  </si>
+  <si>
+    <t>KCH</t>
+  </si>
+  <si>
+    <t>UNIWERSYTET GDANSKI</t>
+  </si>
+  <si>
+    <t>Gdansk</t>
+  </si>
+  <si>
+    <t>18.57400997579134</t>
+  </si>
+  <si>
+    <t>54.396404950000004</t>
+  </si>
+  <si>
+    <t>https://www.ug.edu.pl</t>
+  </si>
+  <si>
+    <t>D  WURZBUR01</t>
+  </si>
+  <si>
+    <t>KFY, KGEO, KMA</t>
+  </si>
+  <si>
+    <t>JULIUS-MAXIMILIANS-UNIVERSITAT WURZBURG</t>
+  </si>
+  <si>
+    <t>Würzburg</t>
+  </si>
+  <si>
+    <t>9.971655766351642</t>
+  </si>
+  <si>
+    <t>49.780603150000005</t>
+  </si>
+  <si>
+    <t>http://www.uni-wuerzburg.de</t>
+  </si>
+  <si>
+    <t>0531, 061, 051</t>
+  </si>
+  <si>
+    <t>SK TRNAVA02</t>
+  </si>
+  <si>
+    <t>UNIVERZITA SV. CYRILA A METODA V TRNAVE</t>
+  </si>
+  <si>
+    <t>Trnava</t>
+  </si>
+  <si>
+    <t>17.58899776400044</t>
+  </si>
+  <si>
+    <t>48.3831974</t>
+  </si>
+  <si>
+    <t>https://www.ucm.sk</t>
+  </si>
+  <si>
+    <t>054</t>
+  </si>
+  <si>
+    <t>E  MALAGA01</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD DE MALAGA</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>-4.495336390634675</t>
+  </si>
+  <si>
+    <t>36.7165576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.uma.es  </t>
+  </si>
+  <si>
+    <t>D  GIESSEN01</t>
+  </si>
+  <si>
+    <t>JUSTUS-LIEBIG-UNIVERSITAET GIESSEN</t>
+  </si>
+  <si>
+    <t>Giessen</t>
+  </si>
+  <si>
+    <t>8.694097864600673</t>
+  </si>
+  <si>
+    <t>50.57630295</t>
+  </si>
+  <si>
+    <t>https://www.uni-giessen.de</t>
+  </si>
+  <si>
+    <t>0532, 051</t>
+  </si>
+  <si>
+    <t>LV JELGAVA01</t>
+  </si>
+  <si>
+    <t>LATVIJAS BIOZINATNU UN TEHNOLOGIJU UNIVERSITATE</t>
+  </si>
+  <si>
+    <t>Jelgava</t>
+  </si>
+  <si>
+    <t>Lotyšská republika</t>
+  </si>
+  <si>
+    <t>23.7323561</t>
+  </si>
+  <si>
+    <t>56.655968</t>
+  </si>
+  <si>
+    <t>https://www.lbtu.lv</t>
+  </si>
+  <si>
+    <t>0731</t>
+  </si>
+  <si>
+    <t>Architektura a urbanismus</t>
+  </si>
+  <si>
+    <t>PL OPOLE01</t>
+  </si>
+  <si>
+    <t>KI, KMA</t>
+  </si>
+  <si>
+    <t>UNIWERSYTET OPOLSKI</t>
+  </si>
+  <si>
+    <t>Opole</t>
+  </si>
+  <si>
+    <t>17.93179398062986</t>
+  </si>
+  <si>
+    <t>50.6726608</t>
+  </si>
+  <si>
+    <t>https://www.uni.opole.pl</t>
+  </si>
+  <si>
+    <t>RO TIMISOA01</t>
+  </si>
+  <si>
+    <t>KBI, KGEO, KI</t>
+  </si>
+  <si>
+    <t>UNIVERSITATEA DE VEST DIN TIMISOARA</t>
+  </si>
+  <si>
+    <t>Timisoara</t>
+  </si>
+  <si>
+    <t>21.23126099621941</t>
+  </si>
+  <si>
+    <t>45.74732925</t>
+  </si>
+  <si>
+    <t>https://www.uvt.ro</t>
+  </si>
+  <si>
+    <t>LT KAUNAS01</t>
+  </si>
+  <si>
+    <t>VYTAUTO DIDZIOJO UNIVERSITETAS</t>
+  </si>
+  <si>
+    <t>Kaunas</t>
+  </si>
+  <si>
+    <t>Litevská republika</t>
+  </si>
+  <si>
+    <t>23.91439374490837</t>
+  </si>
+  <si>
+    <t>54.8984353</t>
+  </si>
+  <si>
+    <t>https://www.vdu.lt</t>
+  </si>
+  <si>
+    <t>PL POZNAN01</t>
+  </si>
+  <si>
+    <t>UNIWERSYTET IM. ADAMA MICKIEWICZA WPOZNANIU</t>
+  </si>
+  <si>
+    <t>Poznan</t>
+  </si>
+  <si>
+    <t>16.915612725194535</t>
+  </si>
+  <si>
+    <t>52.40816565</t>
+  </si>
+  <si>
+    <t>https://www.amu.edu.pl</t>
+  </si>
+  <si>
+    <t>D  LEIPZIG01</t>
+  </si>
+  <si>
+    <t>UNIVERSITAET LEIPZIG</t>
+  </si>
+  <si>
+    <t>Leipzig</t>
+  </si>
+  <si>
+    <t>12.37863856850984</t>
+  </si>
+  <si>
+    <t>51.33845385</t>
+  </si>
+  <si>
+    <t>http://www.uni-leipzig.de</t>
+  </si>
+  <si>
+    <t>HR SPLIT01</t>
+  </si>
+  <si>
+    <t>SVEUCILISTE U SPLITU</t>
+  </si>
+  <si>
+    <t>SPLIT</t>
+  </si>
+  <si>
+    <t>Chorvatská republika</t>
+  </si>
+  <si>
+    <t>16.46760154890833</t>
+  </si>
+  <si>
+    <t>43.5117478</t>
+  </si>
+  <si>
+    <t>https://www.unist.hr</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>HU BUDAPES01</t>
+  </si>
+  <si>
+    <t>EOTVOS LORAND TUDOMANYEGYETEM</t>
+  </si>
+  <si>
+    <t>Budapest</t>
+  </si>
+  <si>
+    <t>Maďarsko</t>
+  </si>
+  <si>
+    <t>19.061899330588723</t>
+  </si>
+  <si>
+    <t>47.4934799</t>
+  </si>
+  <si>
+    <t>https://www.elte.hu</t>
+  </si>
+  <si>
+    <t>TR ESKISEH03</t>
+  </si>
+  <si>
+    <t>KBIO, KGEO, KFY, KI, KCH</t>
+  </si>
+  <si>
+    <t>ESKISEHIR TEKNIK UNIVERSITESI</t>
+  </si>
+  <si>
+    <t>Eskisehir</t>
+  </si>
+  <si>
+    <t>30.53174476235694</t>
+  </si>
+  <si>
+    <t>39.8168591</t>
+  </si>
+  <si>
+    <t>https://www.eskisehir.edu.tr</t>
+  </si>
+  <si>
+    <t>TR IZMIR01</t>
+  </si>
+  <si>
+    <t>KBI, KMA</t>
+  </si>
+  <si>
+    <t>DOKUZ EYLUL UNIVERSITESI</t>
+  </si>
+  <si>
+    <t>Izmir</t>
+  </si>
+  <si>
+    <t>27.2215606</t>
+  </si>
+  <si>
+    <t>38.3669827</t>
+  </si>
+  <si>
+    <t>http://www.deu.edu.tr</t>
+  </si>
+  <si>
+    <t>054, 061</t>
+  </si>
+  <si>
+    <t>SK PRESOV01</t>
+  </si>
+  <si>
+    <t>PRESOVSKA UNIVERZITA V PRESOVE</t>
+  </si>
+  <si>
+    <t>Prešov</t>
+  </si>
+  <si>
+    <t>21.235015177927682</t>
+  </si>
+  <si>
+    <t>48.989434</t>
+  </si>
+  <si>
+    <t>https://www.unipo.sk</t>
+  </si>
+  <si>
+    <t>0610, 0510, 0000</t>
+  </si>
+  <si>
+    <t>Programy a kvalifikace – všeobecné vzdělání</t>
+  </si>
+  <si>
+    <t>I  CAMERIN01</t>
+  </si>
+  <si>
+    <t>UNIVERSITA DEGLI STUDI DI CAMERINO</t>
+  </si>
+  <si>
+    <t>Camerino</t>
+  </si>
+  <si>
+    <t>Italská republika</t>
+  </si>
+  <si>
+    <t>13.067215488690735</t>
+  </si>
+  <si>
+    <t>43.13963305</t>
+  </si>
+  <si>
+    <t>https://www.unicam.it</t>
+  </si>
+  <si>
+    <t>P  LEIRIA01</t>
+  </si>
+  <si>
+    <t>PŘF, KI</t>
+  </si>
+  <si>
+    <t>INSTITUTO POLITECNICO DE LEIRIA</t>
+  </si>
+  <si>
+    <t>Leiria</t>
+  </si>
+  <si>
+    <t>Portugalská republika</t>
+  </si>
+  <si>
+    <t>-8.8105226085993</t>
+  </si>
+  <si>
+    <t>39.737149106966484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ipleiria.pt </t>
+  </si>
+  <si>
+    <t>0511, 0532</t>
+  </si>
+  <si>
+    <t>E  JAEN01</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD DE JAEN</t>
+  </si>
+  <si>
+    <t>Jaén</t>
+  </si>
+  <si>
+    <t>-3.776633970633042</t>
+  </si>
+  <si>
+    <t>37.78820865</t>
+  </si>
+  <si>
+    <t>https://www.ujaen.es</t>
+  </si>
+  <si>
+    <t>0533, 061, 051, 054, 0532, 05</t>
+  </si>
+  <si>
+    <t>I  URBINO01</t>
+  </si>
+  <si>
+    <t>Universita' degli Studi di Urbino Carlo Bo</t>
+  </si>
+  <si>
+    <t>Urbino</t>
+  </si>
+  <si>
+    <t>12.6369445</t>
+  </si>
+  <si>
+    <t>43.723241</t>
+  </si>
+  <si>
+    <t>https://www.uniurb.it</t>
+  </si>
+  <si>
+    <t>0533, 0540, 0610, 0531, 0511</t>
+  </si>
+  <si>
+    <t>SK BANSKA01</t>
+  </si>
+  <si>
+    <t>KMA</t>
+  </si>
+  <si>
+    <t>UNIVERZITA MATEJA BELA V BANSKEJ BYSTRICI</t>
+  </si>
+  <si>
+    <t>Bánská Bystrica</t>
+  </si>
+  <si>
+    <t>19.145530921337212</t>
+  </si>
+  <si>
+    <t>48.73317955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.umb.sk </t>
+  </si>
+  <si>
+    <t>TR ANTALYA04</t>
+  </si>
+  <si>
+    <t>Alanya Üniversitesi</t>
+  </si>
+  <si>
+    <t>Alanya</t>
+  </si>
+  <si>
+    <t>32.0844180072318</t>
+  </si>
+  <si>
+    <t>36.52653915</t>
+  </si>
+  <si>
+    <t>https://www.alanyauniversity.edu.tr/</t>
+  </si>
+  <si>
+    <t>0512, 0531</t>
+  </si>
+  <si>
+    <t>Biochemie</t>
+  </si>
+  <si>
+    <t>D  DRESDEN02</t>
+  </si>
+  <si>
+    <t>TECHNISCHE UNIVERSITAET DRESDEN</t>
+  </si>
+  <si>
+    <t>Dresden</t>
+  </si>
+  <si>
+    <t>13.735982754935176</t>
+  </si>
+  <si>
+    <t>51.028276500000004</t>
+  </si>
+  <si>
+    <t>http://www.tu-dresden.de/</t>
+  </si>
+  <si>
+    <t>051, 054</t>
+  </si>
+  <si>
+    <t>SK RUZOMBE01</t>
+  </si>
+  <si>
+    <t>KMA, PRF</t>
+  </si>
+  <si>
+    <t>KATOLICKA UNIVERZITA V RUZOMBERKU</t>
+  </si>
+  <si>
+    <t>Ružomberok</t>
+  </si>
+  <si>
+    <t>20.5875762</t>
+  </si>
+  <si>
+    <t>49.0223689</t>
+  </si>
+  <si>
+    <t>http://www.ku.sk/en/</t>
+  </si>
+  <si>
+    <t>D  DORTMUN01</t>
+  </si>
+  <si>
+    <t>TECHNISCHE UNIVERSITAT DORTMUND</t>
+  </si>
+  <si>
+    <t>Dortmund</t>
+  </si>
+  <si>
+    <t>7.4122738886856805</t>
+  </si>
+  <si>
+    <t>51.49148435</t>
+  </si>
+  <si>
+    <t>https://www.tu-dortmund.de</t>
+  </si>
+  <si>
+    <t>TR ANTALYA01</t>
+  </si>
+  <si>
+    <t>AKDENIZ UNIVERSITY</t>
+  </si>
+  <si>
+    <t>Antalya</t>
+  </si>
+  <si>
+    <t>30.650947292742977</t>
+  </si>
+  <si>
+    <t>36.8937844</t>
+  </si>
+  <si>
+    <t>http://www.akdeniz.edu.tr</t>
+  </si>
+  <si>
+    <t>D  SIGMARI01</t>
+  </si>
+  <si>
+    <t>KBI, KCH, KI</t>
+  </si>
+  <si>
+    <t>HOCHSCHULE ALBSTADT-SIGMARINGEN</t>
+  </si>
+  <si>
+    <t>Sigmaringen</t>
+  </si>
+  <si>
+    <t>9.239475660191882</t>
+  </si>
+  <si>
+    <t>48.08715495</t>
+  </si>
+  <si>
+    <t>https://www.hs-albsig.de</t>
+  </si>
+  <si>
+    <t>0531, 0533, 0511, 0532, 061</t>
+  </si>
+  <si>
+    <t>HR ZAGREB11</t>
+  </si>
+  <si>
+    <t>SVEUCILISTE ALGEBRA</t>
+  </si>
+  <si>
+    <t>ZAGREB</t>
+  </si>
+  <si>
+    <t>15.941112901216494</t>
+  </si>
+  <si>
+    <t>45.810512700000004</t>
+  </si>
+  <si>
+    <t>https://www.algebra.hr</t>
+  </si>
+  <si>
+    <t>D  KOTHEN01</t>
+  </si>
+  <si>
+    <t>HOCHSCHULE ANHALT</t>
+  </si>
+  <si>
+    <t>Kothen</t>
+  </si>
+  <si>
+    <t>12.228052275548063</t>
+  </si>
+  <si>
+    <t>51.83977985</t>
+  </si>
+  <si>
+    <t>https://www.hs-anhalt.de</t>
+  </si>
+  <si>
+    <t>052, 051</t>
+  </si>
+  <si>
     <t>TR KARS01</t>
   </si>
   <si>
-    <t>KMA</t>
-  </si>
-  <si>
     <t>KAFKAS UNIVERSITESI</t>
   </si>
   <si>
     <t>Kars</t>
   </si>
   <si>
-    <t>Turecká republika</t>
-  </si>
-  <si>
     <t>43.05656720268237</t>
   </si>
   <si>
@@ -70,501 +1144,15 @@
     <t>https://www.kafkas.edu.tr</t>
   </si>
   <si>
-    <t>0511, 0512, 0532</t>
-  </si>
-  <si>
-    <t>Biologie</t>
-  </si>
-  <si>
-    <t>Biochemie</t>
-  </si>
-  <si>
-    <t>Vědy o Zemi</t>
-  </si>
-  <si>
-    <t>LV JELGAVA01</t>
-  </si>
-  <si>
-    <t>KGEO</t>
-  </si>
-  <si>
-    <t>LATVIJAS BIOZINATNU UN TEHNOLOGIJU UNIVERSITATE</t>
-  </si>
-  <si>
-    <t>Jelgava</t>
-  </si>
-  <si>
-    <t>Lotyšská republika</t>
-  </si>
-  <si>
-    <t>23.7323561</t>
-  </si>
-  <si>
-    <t>56.655968</t>
-  </si>
-  <si>
-    <t>https://www.lbtu.lv</t>
-  </si>
-  <si>
-    <t>0731</t>
-  </si>
-  <si>
-    <t>Architektura a urbanismus</t>
-  </si>
-  <si>
-    <t>SK BANSKA01</t>
-  </si>
-  <si>
-    <t>UNIVERZITA MATEJA BELA V BANSKEJ BYSTRICI</t>
-  </si>
-  <si>
-    <t>Bánská Bystrica</t>
-  </si>
-  <si>
-    <t>Slovenská republika</t>
-  </si>
-  <si>
-    <t>19.145530921337212</t>
-  </si>
-  <si>
-    <t>48.73317955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.umb.sk </t>
-  </si>
-  <si>
-    <t>0532</t>
-  </si>
-  <si>
-    <t>I  URBINO01</t>
-  </si>
-  <si>
-    <t>KBI</t>
-  </si>
-  <si>
-    <t>Universita' degli Studi di Urbino Carlo Bo</t>
-  </si>
-  <si>
-    <t>Urbino</t>
-  </si>
-  <si>
-    <t>Italská republika</t>
-  </si>
-  <si>
-    <t>12.6369445</t>
-  </si>
-  <si>
-    <t>43.723241</t>
-  </si>
-  <si>
-    <t>https://www.uniurb.it</t>
-  </si>
-  <si>
-    <t>0511, 0610, 0533, 0540, 0531</t>
-  </si>
-  <si>
-    <t>Informační a komunikační technologie (ICT)</t>
-  </si>
-  <si>
-    <t>Fyzika</t>
-  </si>
-  <si>
-    <t>Matematika a statistika</t>
-  </si>
-  <si>
-    <t>Chemie</t>
-  </si>
-  <si>
-    <t>HR SPLIT01</t>
-  </si>
-  <si>
-    <t>PRF</t>
-  </si>
-  <si>
-    <t>SVEUCILISTE U SPLITU</t>
-  </si>
-  <si>
-    <t>SPLIT</t>
-  </si>
-  <si>
-    <t>Chorvatská republika</t>
-  </si>
-  <si>
-    <t>16.46760154890833</t>
-  </si>
-  <si>
-    <t>43.5117478</t>
-  </si>
-  <si>
-    <t>https://www.unist.hr</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>I  CAMERIN01</t>
-  </si>
-  <si>
-    <t>UNIVERSITA DEGLI STUDI DI CAMERINO</t>
-  </si>
-  <si>
-    <t>Camerino</t>
-  </si>
-  <si>
-    <t>13.067215488690735</t>
-  </si>
-  <si>
-    <t>43.13963305</t>
-  </si>
-  <si>
-    <t>https://www.unicam.it</t>
-  </si>
-  <si>
-    <t>0533</t>
-  </si>
-  <si>
-    <t>D  DORTMUN01</t>
-  </si>
-  <si>
-    <t>TECHNISCHE UNIVERSITAT DORTMUND</t>
-  </si>
-  <si>
-    <t>Dortmund</t>
-  </si>
-  <si>
-    <t>Spolková republika Německo</t>
-  </si>
-  <si>
-    <t>7.4122738886856805</t>
-  </si>
-  <si>
-    <t>51.49148435</t>
-  </si>
-  <si>
-    <t>https://www.tu-dortmund.de</t>
-  </si>
-  <si>
-    <t>0510</t>
-  </si>
-  <si>
-    <t>Biologické a příbuzné vědy</t>
-  </si>
-  <si>
-    <t>F  ANGERS08</t>
-  </si>
-  <si>
-    <t>KBI, KGEO</t>
-  </si>
-  <si>
-    <t>ASSOCIATION GROUPE ESA</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Francouzská republika</t>
-  </si>
-  <si>
-    <t>-0.5441803899948905</t>
-  </si>
-  <si>
-    <t>47.459291300000004</t>
-  </si>
-  <si>
-    <t>http://www.groupe-esa.com</t>
-  </si>
-  <si>
-    <t>TR ANTALYA01</t>
-  </si>
-  <si>
-    <t>AKDENIZ UNIVERSITY</t>
-  </si>
-  <si>
-    <t>Antalya</t>
-  </si>
-  <si>
-    <t>30.650947292742977</t>
-  </si>
-  <si>
-    <t>36.8937844</t>
-  </si>
-  <si>
-    <t>http://www.akdeniz.edu.tr</t>
-  </si>
-  <si>
-    <t>051</t>
-  </si>
-  <si>
-    <t>E  MALAGA01</t>
-  </si>
-  <si>
-    <t>UNIVERSIDAD DE MALAGA</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>Španělské království</t>
-  </si>
-  <si>
-    <t>-4.495336390634675</t>
-  </si>
-  <si>
-    <t>36.7165576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.uma.es  </t>
-  </si>
-  <si>
-    <t>054</t>
-  </si>
-  <si>
-    <t>S  UMEA01</t>
-  </si>
-  <si>
-    <t>UMEA UNIVERSITET</t>
-  </si>
-  <si>
-    <t>Umea</t>
-  </si>
-  <si>
-    <t>Švédské království</t>
-  </si>
-  <si>
-    <t>20.304316311493196</t>
-  </si>
-  <si>
-    <t>63.82177625</t>
-  </si>
-  <si>
-    <t>https://www.umu.se</t>
-  </si>
-  <si>
-    <t>0532, 052</t>
-  </si>
-  <si>
-    <t>Životní prostředí</t>
-  </si>
-  <si>
-    <t>EE TALLINN05</t>
-  </si>
-  <si>
-    <t>KBIO</t>
-  </si>
-  <si>
-    <t>TALLINN UNIVERSITY</t>
-  </si>
-  <si>
-    <t>Tallinn</t>
-  </si>
-  <si>
-    <t>Estonská republika</t>
-  </si>
-  <si>
-    <t>24.772347058941484</t>
-  </si>
-  <si>
-    <t>59.4393125</t>
-  </si>
-  <si>
-    <t>https://www.tlu.ee</t>
-  </si>
-  <si>
-    <t>054, 061, 05, 051, 052, 053</t>
-  </si>
-  <si>
-    <t>Přírodní vědy, matematika a statistika</t>
-  </si>
-  <si>
-    <t>Vědy o neživé přírodě</t>
-  </si>
-  <si>
-    <t>PL GDANSK01</t>
-  </si>
-  <si>
-    <t>KCH</t>
-  </si>
-  <si>
-    <t>UNIWERSYTET GDANSKI</t>
-  </si>
-  <si>
-    <t>Gdansk</t>
-  </si>
-  <si>
-    <t>Polská republika</t>
-  </si>
-  <si>
-    <t>18.57400997579134</t>
-  </si>
-  <si>
-    <t>54.396404950000004</t>
-  </si>
-  <si>
-    <t>https://www.ug.edu.pl</t>
-  </si>
-  <si>
-    <t>HU BUDAPES01</t>
-  </si>
-  <si>
-    <t>EOTVOS LORAND TUDOMANYEGYETEM</t>
-  </si>
-  <si>
-    <t>Budapest</t>
-  </si>
-  <si>
-    <t>Maďarsko</t>
-  </si>
-  <si>
-    <t>19.061899330588723</t>
-  </si>
-  <si>
-    <t>47.4934799</t>
-  </si>
-  <si>
-    <t>https://www.elte.hu</t>
-  </si>
-  <si>
-    <t>0511</t>
-  </si>
-  <si>
-    <t>SK RUZOMBE01</t>
-  </si>
-  <si>
-    <t>KMA, PRF</t>
-  </si>
-  <si>
-    <t>KATOLICKA UNIVERZITA V RUZOMBERKU</t>
-  </si>
-  <si>
-    <t>Ružomberok</t>
-  </si>
-  <si>
-    <t>20.5875762</t>
-  </si>
-  <si>
-    <t>49.0223689</t>
-  </si>
-  <si>
-    <t>http://www.ku.sk/en/</t>
-  </si>
-  <si>
-    <t>D  WURZBUR01</t>
-  </si>
-  <si>
-    <t>KFY, KGEO, KMA</t>
-  </si>
-  <si>
-    <t>JULIUS-MAXIMILIANS-UNIVERSITAT WURZBURG</t>
-  </si>
-  <si>
-    <t>Würzburg</t>
-  </si>
-  <si>
-    <t>9.971655766351642</t>
-  </si>
-  <si>
-    <t>49.780603150000005</t>
-  </si>
-  <si>
-    <t>http://www.uni-wuerzburg.de</t>
-  </si>
-  <si>
-    <t>061, 0531, 051</t>
-  </si>
-  <si>
-    <t>PL OPOLE01</t>
-  </si>
-  <si>
-    <t>KI, KMA</t>
-  </si>
-  <si>
-    <t>UNIWERSYTET OPOLSKI</t>
-  </si>
-  <si>
-    <t>Opole</t>
-  </si>
-  <si>
-    <t>17.93179398062986</t>
-  </si>
-  <si>
-    <t>50.6726608</t>
-  </si>
-  <si>
-    <t>https://www.uni.opole.pl</t>
-  </si>
-  <si>
-    <t>RO TIMISOA01</t>
-  </si>
-  <si>
-    <t>KBI, KGEO, KI</t>
-  </si>
-  <si>
-    <t>UNIVERSITATEA DE VEST DIN TIMISOARA</t>
-  </si>
-  <si>
-    <t>Timisoara</t>
-  </si>
-  <si>
-    <t>Rumunsko</t>
-  </si>
-  <si>
-    <t>21.23126099621941</t>
-  </si>
-  <si>
-    <t>45.74732925</t>
-  </si>
-  <si>
-    <t>https://www.uvt.ro</t>
-  </si>
-  <si>
-    <t>G  ATHINE41</t>
-  </si>
-  <si>
-    <t>PANEPISTIMIO AIGAIOU</t>
-  </si>
-  <si>
-    <t>Mytilini</t>
-  </si>
-  <si>
-    <t>Řecká republika</t>
-  </si>
-  <si>
-    <t>https://www.aegean.gr</t>
-  </si>
-  <si>
-    <t>0610, 0540, 0530</t>
-  </si>
-  <si>
-    <t>PL POZNAN01</t>
-  </si>
-  <si>
-    <t>UNIWERSYTET IM. ADAMA MICKIEWICZA WPOZNANIU</t>
-  </si>
-  <si>
-    <t>Poznan</t>
-  </si>
-  <si>
-    <t>16.915612725194535</t>
-  </si>
-  <si>
-    <t>52.40816565</t>
-  </si>
-  <si>
-    <t>https://www.amu.edu.pl</t>
+    <t>0512, 0511, 0532</t>
   </si>
   <si>
     <t>RO BUCURES18</t>
   </si>
   <si>
-    <t>KI</t>
-  </si>
-  <si>
     <t>UNIVERSITATEA ROMANO AMERICANA ASOCIATIE</t>
   </si>
   <si>
-    <t>Bucharest</t>
-  </si>
-  <si>
     <t>26.065691841236948</t>
   </si>
   <si>
@@ -574,592 +1162,7 @@
     <t xml:space="preserve">https://www.rau.ro </t>
   </si>
   <si>
-    <t>0511, 0512</t>
-  </si>
-  <si>
-    <t>PL SLUPSK01</t>
-  </si>
-  <si>
-    <t>AKADEMIA POMORSKA W SLUPSKU</t>
-  </si>
-  <si>
-    <t>Slupsk</t>
-  </si>
-  <si>
-    <t>17.0423326</t>
-  </si>
-  <si>
-    <t>54.4547071</t>
-  </si>
-  <si>
-    <t>https://www.upsl.edu.pl</t>
-  </si>
-  <si>
-    <t>RO BUCURES09</t>
-  </si>
-  <si>
-    <t>UNIVERSITATEA DIN BUCURESTI</t>
-  </si>
-  <si>
-    <t>26.10092625223488</t>
-  </si>
-  <si>
-    <t>44.43564445</t>
-  </si>
-  <si>
-    <t>https://www.unibuc.ro</t>
-  </si>
-  <si>
-    <t>P  LEIRIA01</t>
-  </si>
-  <si>
-    <t>PŘF, KI</t>
-  </si>
-  <si>
-    <t>INSTITUTO POLITECNICO DE LEIRIA</t>
-  </si>
-  <si>
-    <t>Leiria</t>
-  </si>
-  <si>
-    <t>Portugalská republika</t>
-  </si>
-  <si>
-    <t>-8.8106098</t>
-  </si>
-  <si>
-    <t>39.73708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ipleiria.pt </t>
-  </si>
-  <si>
-    <t>0511, 0532</t>
-  </si>
-  <si>
-    <t>SK PRESOV01</t>
-  </si>
-  <si>
-    <t>PRESOVSKA UNIVERZITA V PRESOVE</t>
-  </si>
-  <si>
-    <t>Prešov</t>
-  </si>
-  <si>
-    <t>21.235015177927682</t>
-  </si>
-  <si>
-    <t>48.989434</t>
-  </si>
-  <si>
-    <t>https://www.unipo.sk</t>
-  </si>
-  <si>
-    <t>0510, 0610, 0000</t>
-  </si>
-  <si>
-    <t>Programy a kvalifikace – všeobecné vzdělání</t>
-  </si>
-  <si>
-    <t>SK TRNAVA02</t>
-  </si>
-  <si>
-    <t>UNIVERZITA SV. CYRILA A METODA V TRNAVE</t>
-  </si>
-  <si>
-    <t>Trnava</t>
-  </si>
-  <si>
-    <t>17.58899776400044</t>
-  </si>
-  <si>
-    <t>48.3831974</t>
-  </si>
-  <si>
-    <t>https://www.ucm.sk</t>
-  </si>
-  <si>
-    <t>TR CANAKKA01</t>
-  </si>
-  <si>
-    <t>CANAKKALE ONSEKIZ MART UNIVERSITESI</t>
-  </si>
-  <si>
-    <t>Canakkale</t>
-  </si>
-  <si>
-    <t>26.421464811380968</t>
-  </si>
-  <si>
-    <t>40.1120066</t>
-  </si>
-  <si>
-    <t>https://www.comu.edu.tr</t>
-  </si>
-  <si>
-    <t>TR ANTALYA04</t>
-  </si>
-  <si>
-    <t>Alanya Üniversitesi</t>
-  </si>
-  <si>
-    <t>Alanya</t>
-  </si>
-  <si>
-    <t>32.0844180072318</t>
-  </si>
-  <si>
-    <t>36.52653915</t>
-  </si>
-  <si>
-    <t>https://www.alanyauniversity.edu.tr/</t>
-  </si>
-  <si>
-    <t>0512, 0531</t>
-  </si>
-  <si>
-    <t>BG ROUSSE01</t>
-  </si>
-  <si>
-    <t>UNIVERSITY OF RUSE ANGEL KANCHEV</t>
-  </si>
-  <si>
-    <t>Rousse</t>
-  </si>
-  <si>
-    <t>Bulharská republika</t>
-  </si>
-  <si>
-    <t>25.972612663551303</t>
-  </si>
-  <si>
-    <t>43.85348155</t>
-  </si>
-  <si>
-    <t>https://www.uni-ruse.bg</t>
-  </si>
-  <si>
-    <t>0610, 061</t>
-  </si>
-  <si>
-    <t>LT KAUNAS01</t>
-  </si>
-  <si>
-    <t>VYTAUTO DIDZIOJO UNIVERSITETAS</t>
-  </si>
-  <si>
-    <t>Kaunas</t>
-  </si>
-  <si>
-    <t>Litevská republika</t>
-  </si>
-  <si>
-    <t>23.91439374490837</t>
-  </si>
-  <si>
-    <t>54.8984353</t>
-  </si>
-  <si>
-    <t>https://www.vdu.lt</t>
-  </si>
-  <si>
-    <t>TR TRABZON04</t>
-  </si>
-  <si>
-    <t>KCH, KMA</t>
-  </si>
-  <si>
-    <t>TRABZON UNIVERSITY</t>
-  </si>
-  <si>
-    <t>TRABZON</t>
-  </si>
-  <si>
-    <t>39.60852063412131</t>
-  </si>
-  <si>
-    <t>41.00981805</t>
-  </si>
-  <si>
-    <t>https://trabzon.edu.tr</t>
-  </si>
-  <si>
-    <t>E  JAEN01</t>
-  </si>
-  <si>
-    <t>UNIVERSIDAD DE JAEN</t>
-  </si>
-  <si>
-    <t>Jaén</t>
-  </si>
-  <si>
-    <t>-3.776633970633042</t>
-  </si>
-  <si>
-    <t>37.78820865</t>
-  </si>
-  <si>
-    <t>https://www.ujaen.es</t>
-  </si>
-  <si>
-    <t>051, 05, 0532, 0533, 061, 054</t>
-  </si>
-  <si>
-    <t>PL CZESTOC01</t>
-  </si>
-  <si>
-    <t>KI, KMA, KCH</t>
-  </si>
-  <si>
-    <t>POLITECHNIKA CZESTOCHOWSKA</t>
-  </si>
-  <si>
-    <t>Czestochowa</t>
-  </si>
-  <si>
-    <t>19.115807327479168</t>
-  </si>
-  <si>
-    <t>50.822852350000005</t>
-  </si>
-  <si>
-    <t>https://www.pcz.pl</t>
-  </si>
-  <si>
-    <t>0540, 0531</t>
-  </si>
-  <si>
-    <t>HR ZAGREB11</t>
-  </si>
-  <si>
-    <t>SVEUCILISTE ALGEBRA</t>
-  </si>
-  <si>
-    <t>ZAGREB</t>
-  </si>
-  <si>
-    <t>15.941112901216494</t>
-  </si>
-  <si>
-    <t>45.810512700000004</t>
-  </si>
-  <si>
-    <t>https://www.algebra.hr</t>
-  </si>
-  <si>
-    <t>D  KOTHEN01</t>
-  </si>
-  <si>
-    <t>HOCHSCHULE ANHALT</t>
-  </si>
-  <si>
-    <t>Kothen</t>
-  </si>
-  <si>
-    <t>12.228052275548063</t>
-  </si>
-  <si>
-    <t>51.83977985</t>
-  </si>
-  <si>
-    <t>https://www.hs-anhalt.de</t>
-  </si>
-  <si>
-    <t>052, 051</t>
-  </si>
-  <si>
-    <t>D  GIESSEN01</t>
-  </si>
-  <si>
-    <t>JUSTUS-LIEBIG-UNIVERSITAET GIESSEN</t>
-  </si>
-  <si>
-    <t>Giessen</t>
-  </si>
-  <si>
-    <t>8.666985496666666</t>
-  </si>
-  <si>
-    <t>50.570647449999996</t>
-  </si>
-  <si>
-    <t>https://www.uni-giessen.de</t>
-  </si>
-  <si>
-    <t>051, 0532</t>
-  </si>
-  <si>
-    <t>PL LODZ02</t>
-  </si>
-  <si>
-    <t>POLITECHNIKA LODZKA</t>
-  </si>
-  <si>
-    <t>Lodz</t>
-  </si>
-  <si>
-    <t>19.4529575</t>
-  </si>
-  <si>
-    <t>51.752577</t>
-  </si>
-  <si>
-    <t>https://www.p.lodz.pl</t>
-  </si>
-  <si>
-    <t>D  DRESDEN02</t>
-  </si>
-  <si>
-    <t>TECHNISCHE UNIVERSITAET DRESDEN</t>
-  </si>
-  <si>
-    <t>Dresden</t>
-  </si>
-  <si>
-    <t>13.735982754935176</t>
-  </si>
-  <si>
-    <t>51.028276500000004</t>
-  </si>
-  <si>
-    <t>http://www.tu-dresden.de/</t>
-  </si>
-  <si>
-    <t>054, 051</t>
-  </si>
-  <si>
-    <t>E  MADRID04</t>
-  </si>
-  <si>
-    <t>UNIVERSIDAD AUTONOMA DE MADRID</t>
-  </si>
-  <si>
-    <t>Madrid</t>
-  </si>
-  <si>
-    <t>-3.6949577655963672</t>
-  </si>
-  <si>
-    <t>40.5453765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.uam.es </t>
-  </si>
-  <si>
-    <t>TR ESKISEH03</t>
-  </si>
-  <si>
-    <t>KBIO, KGEO, KFY, KI, KCH</t>
-  </si>
-  <si>
-    <t>ESKISEHIR TEKNIK UNIVERSITESI</t>
-  </si>
-  <si>
-    <t>Eskisehir</t>
-  </si>
-  <si>
-    <t>30.53174476235694</t>
-  </si>
-  <si>
-    <t>39.8168591</t>
-  </si>
-  <si>
-    <t>https://www.eskisehir.edu.tr</t>
-  </si>
-  <si>
-    <t>SI KOPER03</t>
-  </si>
-  <si>
-    <t>KBI, KI</t>
-  </si>
-  <si>
-    <t>UNIVERZA NA PRIMORSKEM UNIVERSITA DEL LITORALE</t>
-  </si>
-  <si>
-    <t>Koper</t>
-  </si>
-  <si>
-    <t>Slovinská republika</t>
-  </si>
-  <si>
-    <t>13.7268097</t>
-  </si>
-  <si>
-    <t>45.5480962</t>
-  </si>
-  <si>
-    <t>https://www.upr.si</t>
-  </si>
-  <si>
-    <t>051, 0532, 061</t>
-  </si>
-  <si>
-    <t>PL LODZ01</t>
-  </si>
-  <si>
-    <t>UNIWERSYTET LODZKI</t>
-  </si>
-  <si>
-    <t>19.47407557561835</t>
-  </si>
-  <si>
-    <t>51.771323699999996</t>
-  </si>
-  <si>
-    <t>https://www.uni.lodz.pl</t>
-  </si>
-  <si>
-    <t>F  TOULOUS15</t>
-  </si>
-  <si>
-    <t>ECOLE D'INGENIEURS DE PURPAN</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>1.3965155228102595</t>
-  </si>
-  <si>
-    <t>43.6024928</t>
-  </si>
-  <si>
-    <t>https://www.purpan.fr</t>
-  </si>
-  <si>
-    <t>D  SIGMARI01</t>
-  </si>
-  <si>
-    <t>KBI, KCH, KI</t>
-  </si>
-  <si>
-    <t>HOCHSCHULE ALBSTADT-SIGMARINGEN</t>
-  </si>
-  <si>
-    <t>Sigmaringen</t>
-  </si>
-  <si>
-    <t>9.239475660191882</t>
-  </si>
-  <si>
-    <t>48.08715495</t>
-  </si>
-  <si>
-    <t>https://www.hs-albsig.de</t>
-  </si>
-  <si>
-    <t>0511, 0532, 0533, 061, 0531</t>
-  </si>
-  <si>
-    <t>D  LEIPZIG01</t>
-  </si>
-  <si>
-    <t>UNIVERSITAET LEIPZIG</t>
-  </si>
-  <si>
-    <t>Leipzig</t>
-  </si>
-  <si>
-    <t>12.37863856850984</t>
-  </si>
-  <si>
-    <t>51.33845385</t>
-  </si>
-  <si>
-    <t>http://www.uni-leipzig.de</t>
-  </si>
-  <si>
-    <t>TR IZMIR01</t>
-  </si>
-  <si>
-    <t>KBI, KMA</t>
-  </si>
-  <si>
-    <t>DOKUZ EYLUL UNIVERSITESI</t>
-  </si>
-  <si>
-    <t>Izmir</t>
-  </si>
-  <si>
-    <t>27.13696496633385</t>
-  </si>
-  <si>
-    <t>38.43052955</t>
-  </si>
-  <si>
-    <t>http://www.deu.edu.tr</t>
-  </si>
-  <si>
-    <t>054, 061</t>
-  </si>
-  <si>
-    <t>SK BRATISL02</t>
-  </si>
-  <si>
-    <t>UNIVERZITA KOMENSKEHO V BRATISLAVE</t>
-  </si>
-  <si>
-    <t>Bratislava</t>
-  </si>
-  <si>
-    <t>17.13352777780252</t>
-  </si>
-  <si>
-    <t>48.159890700000005</t>
-  </si>
-  <si>
-    <t>http://www.uniba.sk</t>
-  </si>
-  <si>
-    <t>061</t>
-  </si>
-  <si>
-    <t>RS NOVISAD02</t>
-  </si>
-  <si>
-    <t>UNIVERZITET U NOVOM SADU</t>
-  </si>
-  <si>
-    <t>NOVI SAD</t>
-  </si>
-  <si>
-    <t>Srbská republika</t>
-  </si>
-  <si>
-    <t>19.851175531732203</t>
-  </si>
-  <si>
-    <t>45.246226</t>
-  </si>
-  <si>
-    <t>http://www.uns.ac.rs</t>
-  </si>
-  <si>
-    <t>D  KAISERS01</t>
-  </si>
-  <si>
-    <t>KFY</t>
-  </si>
-  <si>
-    <t>RHEINLAND-PFALZISCHE TECHNISCHE UNIVERSITAT</t>
-  </si>
-  <si>
-    <t>Kaiserslautern</t>
-  </si>
-  <si>
-    <t>7.754214153273509</t>
-  </si>
-  <si>
-    <t>49.4246142</t>
-  </si>
-  <si>
-    <t>https://rptu.de/</t>
-  </si>
-  <si>
-    <t>052, 08, 051</t>
-  </si>
-  <si>
-    <t>Zemědělství, lesnictví, rybářství a veterinářství</t>
+    <t>0512, 0511</t>
   </si>
   <si>
     <t>I  TRIESTE01</t>
@@ -1608,130 +1611,130 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1763,1083 +1766,1083 @@
         <v>48</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>74</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>84</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>90</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>118</v>
+        <v>28</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>35</v>
+        <v>157</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>39</v>
+        <v>161</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>72</v>
+        <v>157</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>49</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>72</v>
+        <v>157</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>72</v>
+        <v>157</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>39</v>
+        <v>161</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="I33" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="J33" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="I34" s="1" t="s">
-        <v>172</v>
+        <v>88</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>23</v>
+        <v>171</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+        <v>125</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="H35" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>23</v>
+        <v>171</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+        <v>125</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="H36" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>125</v>
       </c>
       <c r="F37" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="I37" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="J37" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="E38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F38" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="I38" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="J38" s="1" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>180</v>
+        <v>41</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="G39" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="J39" s="1" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>125</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>92</v>
+        <v>197</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="E41" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F41" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="H41" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="I41" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I41" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="J41" s="1" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2847,572 +2850,572 @@
         <v>198</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="I42" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="J42" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>202</v>
+        <v>14</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>206</v>
+        <v>28</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>41</v>
+        <v>215</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>213</v>
+        <v>48</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>35</v>
+        <v>224</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>213</v>
+        <v>18</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>213</v>
+        <v>28</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>214</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>180</v>
+        <v>41</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>14</v>
+        <v>243</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="I48" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="J48" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>180</v>
+        <v>82</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>14</v>
+        <v>251</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>233</v>
+        <v>102</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>180</v>
+        <v>256</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>233</v>
+        <v>102</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>153</v>
+        <v>263</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>237</v>
+        <v>62</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>153</v>
+        <v>263</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>237</v>
+        <v>62</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>245</v>
+        <v>53</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>76</v>
+        <v>276</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>250</v>
+        <v>82</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>39</v>
+        <v>276</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>77</v>
+        <v>277</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>96</v>
+        <v>281</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>261</v>
+        <v>284</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>262</v>
+        <v>48</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>119</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>41</v>
+        <v>286</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>96</v>
+        <v>289</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>41</v>
+        <v>286</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>96</v>
+        <v>289</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>257</v>
+        <v>295</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>258</v>
+        <v>296</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>96</v>
+        <v>149</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>259</v>
+        <v>297</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>260</v>
+        <v>298</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>49</v>
@@ -3420,543 +3423,543 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>257</v>
+        <v>295</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>258</v>
+        <v>296</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>96</v>
+        <v>149</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>259</v>
+        <v>297</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>260</v>
+        <v>298</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>264</v>
+        <v>21</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>264</v>
+        <v>21</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>180</v>
+        <v>21</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>57</v>
+        <v>149</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>274</v>
+        <v>297</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>275</v>
+        <v>298</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>92</v>
+        <v>300</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>72</v>
+        <v>149</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>109</v>
+        <v>162</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>72</v>
+        <v>281</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>283</v>
+        <v>307</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>72</v>
+        <v>281</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>72</v>
+        <v>281</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>180</v>
+        <v>82</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>125</v>
+        <v>281</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>76</v>
+        <v>307</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>72</v>
+        <v>281</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>79</v>
+        <v>309</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>303</v>
+        <v>28</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>39</v>
+        <v>321</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>21</v>
+        <v>322</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>311</v>
+        <v>11</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>136</v>
+        <v>321</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>318</v>
+        <v>21</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>321</v>
+        <v>125</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>318</v>
+        <v>21</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>321</v>
+        <v>125</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>321</v>
+        <v>53</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>325</v>
+        <v>28</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>293</v>
+        <v>339</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>125</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>19</v>
@@ -3964,223 +3967,223 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>72</v>
+        <v>243</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>19</v>
@@ -4188,290 +4191,290 @@
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>352</v>
+        <v>21</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>352</v>
+        <v>21</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>23</v>
+        <v>309</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>49</v>
+        <v>322</v>
       </c>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>54</v>
+        <v>309</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>369</v>
+        <v>62</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>39</v>
+        <v>376</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F88" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="G88" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="H88" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="I88" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="E88" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>380</v>
-      </c>
       <c r="J88" s="1" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>374</v>
+        <v>11</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>376</v>
+        <v>43</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>381</v>
+        <v>322</v>
       </c>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>374</v>
+        <v>11</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>376</v>
+        <v>43</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>374</v>
+        <v>122</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>44</v>
+        <v>281</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>374</v>
+        <v>122</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>44</v>
+        <v>281</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
